--- a/assets/templates/Financial_Model_SAMPLE_DEMO_USD_thousands_GAAP.xlsx
+++ b/assets/templates/Financial_Model_SAMPLE_DEMO_USD_thousands_GAAP.xlsx
@@ -2070,7 +2070,7 @@
     <row r="15" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A15" s="14" t="inlineStr">
         <is>
-          <t>Depreciation (Percent of Sales)</t>
+          <t>D&amp;A % of Sales</t>
         </is>
       </c>
       <c r="B15" s="101">
@@ -2089,7 +2089,7 @@
     <row r="16" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A16" s="14" t="inlineStr">
         <is>
-          <t>Long Term Debt Interest (Average Debt)</t>
+          <t>LTD Rate (Avg Debt)</t>
         </is>
       </c>
       <c r="B16" s="101">
@@ -2108,7 +2108,7 @@
     <row r="17" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A17" s="14" t="inlineStr">
         <is>
-          <t>Tax Rate (Percent of EBT)</t>
+          <t>Tax Rate (Assumption)</t>
         </is>
       </c>
       <c r="B17" s="101">
@@ -2495,19 +2495,18 @@
           <t>Taxes</t>
         </is>
       </c>
-      <c r="B42" s="97">
-        <f>IF(B41&gt;0,B41*$B$8,0)</f>
-        <v/>
-      </c>
-      <c r="C42" s="97">
-        <f>IF(C41&gt;0,C41*$B$8,0)</f>
-        <v/>
-      </c>
-      <c r="D42" s="97">
-        <f>IF(D41&gt;0,D41*$B$8,0)</f>
-        <v/>
-      </c>
-      <c r="E42" s="17" t="n"/>
+      <c r="B42" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" outlineLevel="1" ht="14.5" customHeight="1" thickBot="1">
       <c r="A43" s="32" t="inlineStr">
@@ -2974,15 +2973,16 @@
         </is>
       </c>
       <c r="B77" s="105" t="n">
-        <v>73.10000000000002</v>
-      </c>
-      <c r="C77" s="97">
-        <f>B77+C43-C45</f>
-        <v/>
-      </c>
-      <c r="D77" s="97">
-        <f>C77+D43-D45</f>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="C77" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78" outlineLevel="1" ht="14.5" customHeight="1">
@@ -3720,7 +3720,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
@@ -3735,7 +3734,6 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>

--- a/assets/templates/Financial_Model_SAMPLE_DEMO_USD_thousands_GAAP.xlsx
+++ b/assets/templates/Financial_Model_SAMPLE_DEMO_USD_thousands_GAAP.xlsx
@@ -45,7 +45,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.000_);\(#,##0.000\)"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="29">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -184,6 +184,24 @@
       <b val="1"/>
       <sz val="11"/>
     </font>
+    <font>
+      <color rgb="00000000"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="001F4E79"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <color rgb="001F4E79"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="001F4E79"/>
+      <sz val="11"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -304,7 +322,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="37" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -534,6 +552,55 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="27" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="38" fontId="25" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="40" fontId="25" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="165" fontId="27" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1896,24 +1963,26 @@
           <t>Balance Sheet Check (Assets - L+E)</t>
         </is>
       </c>
-      <c r="B3" s="92">
+      <c r="B3" s="126">
         <f>IFERROR(IF(ABS(B62-B79)&lt;0.01,0,B62-B79),0)</f>
         <v/>
       </c>
-      <c r="C3" s="92">
+      <c r="C3" s="126">
         <f>IFERROR(IF(ABS(C62-C79)&lt;0.01,0,C62-C79),0)</f>
         <v/>
       </c>
-      <c r="D3" s="92">
+      <c r="D3" s="126">
         <f>IFERROR(IF(ABS(D62-D79)&lt;0.01,0,D62-D79),0)</f>
         <v/>
       </c>
+      <c r="E3" s="127" t="n"/>
     </row>
     <row r="4" ht="14.5" customFormat="1" customHeight="1" s="58">
       <c r="A4" s="59" t="n"/>
-      <c r="B4" s="93" t="n"/>
-      <c r="C4" s="94" t="n"/>
-      <c r="D4" s="94" t="n"/>
+      <c r="B4" s="128" t="n"/>
+      <c r="C4" s="129" t="n"/>
+      <c r="D4" s="129" t="n"/>
+      <c r="E4" s="127" t="n"/>
     </row>
     <row r="5" ht="19.75" customFormat="1" customHeight="1" s="12">
       <c r="A5" s="10" t="inlineStr">
@@ -1921,15 +1990,17 @@
           <t>Assumptions &amp; Drivers</t>
         </is>
       </c>
-      <c r="B5" s="95" t="n"/>
-      <c r="C5" s="95" t="n"/>
-      <c r="D5" s="95" t="n"/>
+      <c r="B5" s="130" t="n"/>
+      <c r="C5" s="130" t="n"/>
+      <c r="D5" s="130" t="n"/>
+      <c r="E5" s="127" t="n"/>
     </row>
     <row r="6" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A6" s="13" t="n"/>
-      <c r="B6" s="96" t="n"/>
-      <c r="C6" s="96" t="n"/>
-      <c r="D6" s="96" t="n"/>
+      <c r="B6" s="131" t="n"/>
+      <c r="C6" s="131" t="n"/>
+      <c r="D6" s="131" t="n"/>
+      <c r="E6" s="127" t="n"/>
     </row>
     <row r="7" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A7" s="13" t="inlineStr">
@@ -1937,15 +2008,16 @@
           <t>Days in Period</t>
         </is>
       </c>
-      <c r="B7" s="97" t="n">
+      <c r="B7" s="132" t="n">
         <v>365</v>
       </c>
-      <c r="C7" s="97" t="n">
+      <c r="C7" s="132" t="n">
         <v>365</v>
       </c>
-      <c r="D7" s="97" t="n">
+      <c r="D7" s="132" t="n">
         <v>365</v>
       </c>
+      <c r="E7" s="127" t="n"/>
     </row>
     <row r="8" outlineLevel="1" ht="14.5" customFormat="1" customHeight="1" s="17">
       <c r="A8" t="inlineStr">
@@ -1953,17 +2025,18 @@
           <t>Tax Rate Assumption</t>
         </is>
       </c>
-      <c r="B8" s="98" t="n">
+      <c r="B8" s="131" t="n">
         <v>0.23</v>
       </c>
-      <c r="C8" s="96">
+      <c r="C8" s="133">
         <f>B8</f>
         <v/>
       </c>
-      <c r="D8" s="96">
+      <c r="D8" s="133">
         <f>B8</f>
         <v/>
       </c>
+      <c r="E8" s="127" t="n"/>
     </row>
     <row r="9" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A9" s="13" t="inlineStr">
@@ -1971,9 +2044,10 @@
           <t>Income Statement</t>
         </is>
       </c>
-      <c r="B9" s="96" t="n"/>
-      <c r="C9" s="99" t="n"/>
-      <c r="D9" s="96" t="n"/>
+      <c r="B9" s="131" t="n"/>
+      <c r="C9" s="134" t="n"/>
+      <c r="D9" s="131" t="n"/>
+      <c r="E9" s="127" t="n"/>
     </row>
     <row r="10" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A10" s="14" t="inlineStr">
@@ -1981,15 +2055,16 @@
           <t>Sales Growth</t>
         </is>
       </c>
-      <c r="B10" s="100" t="n"/>
-      <c r="C10" s="101">
+      <c r="B10" s="135" t="n"/>
+      <c r="C10" s="136">
         <f>IFERROR(C32/B32-1,0)</f>
         <v/>
       </c>
-      <c r="D10" s="101">
+      <c r="D10" s="136">
         <f>IFERROR(D32/C32-1,0)</f>
         <v/>
       </c>
+      <c r="E10" s="127" t="n"/>
     </row>
     <row r="11" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A11" s="14" t="inlineStr">
@@ -1997,18 +2072,19 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B11" s="101">
+      <c r="B11" s="136">
         <f>IFERROR(B34/B32,0)</f>
         <v/>
       </c>
-      <c r="C11" s="101">
+      <c r="C11" s="136">
         <f>IFERROR(C34/C32,0)</f>
         <v/>
       </c>
-      <c r="D11" s="101">
+      <c r="D11" s="136">
         <f>IFERROR(D34/D32,0)</f>
         <v/>
       </c>
+      <c r="E11" s="127" t="n"/>
     </row>
     <row r="12" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A12" s="14" t="inlineStr">
@@ -2016,18 +2092,19 @@
           <t>Distribution Expense (Percent of Sales)</t>
         </is>
       </c>
-      <c r="B12" s="101">
+      <c r="B12" s="136">
         <f>IFERROR(B35/B32,0)</f>
         <v/>
       </c>
-      <c r="C12" s="101">
+      <c r="C12" s="136">
         <f>IFERROR(C35/C32,0)</f>
         <v/>
       </c>
-      <c r="D12" s="101">
+      <c r="D12" s="136">
         <f>IFERROR(D35/D32,0)</f>
         <v/>
       </c>
+      <c r="E12" s="127" t="n"/>
     </row>
     <row r="13" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A13" s="14" t="inlineStr">
@@ -2035,18 +2112,19 @@
           <t>Marketing &amp; Admin Expense (Fixed Cost)</t>
         </is>
       </c>
-      <c r="B13" s="102">
+      <c r="B13" s="137">
         <f>IFERROR(B36,0)</f>
         <v/>
       </c>
-      <c r="C13" s="102">
+      <c r="C13" s="137">
         <f>IFERROR(C36,0)</f>
         <v/>
       </c>
-      <c r="D13" s="102">
+      <c r="D13" s="137">
         <f>IFERROR(D36,0)</f>
         <v/>
       </c>
+      <c r="E13" s="127" t="n"/>
     </row>
     <row r="14" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A14" s="14" t="inlineStr">
@@ -2054,80 +2132,85 @@
           <t>Research Expense (Percent of Sales)</t>
         </is>
       </c>
-      <c r="B14" s="101">
+      <c r="B14" s="136">
         <f>IFERROR(B37/B32,0)</f>
         <v/>
       </c>
-      <c r="C14" s="101">
+      <c r="C14" s="136">
         <f>IFERROR(C37/C32,0)</f>
         <v/>
       </c>
-      <c r="D14" s="101">
+      <c r="D14" s="136">
         <f>IFERROR(D37/D32,0)</f>
         <v/>
       </c>
+      <c r="E14" s="127" t="n"/>
     </row>
     <row r="15" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A15" s="14" t="inlineStr">
         <is>
-          <t>D&amp;A % of Sales</t>
-        </is>
-      </c>
-      <c r="B15" s="101">
+          <t>Depreciation (Percent of Sales)</t>
+        </is>
+      </c>
+      <c r="B15" s="136">
         <f>IFERROR(B38/B32,0)</f>
         <v/>
       </c>
-      <c r="C15" s="101">
+      <c r="C15" s="136">
         <f>IFERROR(C38/C32,0)</f>
         <v/>
       </c>
-      <c r="D15" s="101">
+      <c r="D15" s="136">
         <f>IFERROR(D38/D32,0)</f>
         <v/>
       </c>
+      <c r="E15" s="127" t="n"/>
     </row>
     <row r="16" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A16" s="14" t="inlineStr">
         <is>
-          <t>LTD Rate (Avg Debt)</t>
-        </is>
-      </c>
-      <c r="B16" s="101">
+          <t>Long Term Debt Interest (Average Debt)</t>
+        </is>
+      </c>
+      <c r="B16" s="136">
         <f>IFERROR(B40/B74,0)</f>
         <v/>
       </c>
-      <c r="C16" s="101">
+      <c r="C16" s="136">
         <f>IFERROR(C40/AVERAGE(B74,C74),0)</f>
         <v/>
       </c>
-      <c r="D16" s="101">
+      <c r="D16" s="136">
         <f>IFERROR(D40/AVERAGE(C74,D74),0)</f>
         <v/>
       </c>
+      <c r="E16" s="127" t="n"/>
     </row>
     <row r="17" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A17" s="14" t="inlineStr">
         <is>
-          <t>Tax Rate (Assumption)</t>
-        </is>
-      </c>
-      <c r="B17" s="101">
+          <t>Tax Rate (Percent of EBT)</t>
+        </is>
+      </c>
+      <c r="B17" s="136">
         <f>IFERROR(B42/B41,0)</f>
         <v/>
       </c>
-      <c r="C17" s="101">
+      <c r="C17" s="136">
         <f>IFERROR(C42/C41,0)</f>
         <v/>
       </c>
-      <c r="D17" s="101">
+      <c r="D17" s="136">
         <f>IFERROR(D42/D41,0)</f>
         <v/>
       </c>
+      <c r="E17" s="127" t="n"/>
     </row>
     <row r="18" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B18" s="96" t="n"/>
-      <c r="C18" s="96" t="n"/>
-      <c r="D18" s="96" t="n"/>
+      <c r="B18" s="131" t="n"/>
+      <c r="C18" s="131" t="n"/>
+      <c r="D18" s="131" t="n"/>
+      <c r="E18" s="127" t="n"/>
     </row>
     <row r="19" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A19" s="13" t="inlineStr">
@@ -2135,9 +2218,10 @@
           <t>Balance Sheet</t>
         </is>
       </c>
-      <c r="B19" s="96" t="n"/>
-      <c r="C19" s="96" t="n"/>
-      <c r="D19" s="96" t="n"/>
+      <c r="B19" s="131" t="n"/>
+      <c r="C19" s="131" t="n"/>
+      <c r="D19" s="131" t="n"/>
+      <c r="E19" s="127" t="n"/>
     </row>
     <row r="20" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A20" s="14" t="inlineStr">
@@ -2145,18 +2229,19 @@
           <t>Capital Asset Turnover Ratio</t>
         </is>
       </c>
-      <c r="B20" s="103">
+      <c r="B20" s="138">
         <f>IFERROR(B32/B61,0)</f>
         <v/>
       </c>
-      <c r="C20" s="103">
+      <c r="C20" s="138">
         <f>IFERROR(C32/C61,0)</f>
         <v/>
       </c>
-      <c r="D20" s="103">
+      <c r="D20" s="138">
         <f>IFERROR(D32/D61,0)</f>
         <v/>
       </c>
+      <c r="E20" s="127" t="n"/>
     </row>
     <row r="21" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A21" s="14" t="inlineStr">
@@ -2164,18 +2249,19 @@
           <t>Receivable Days (Sales Basis)</t>
         </is>
       </c>
-      <c r="B21" s="102">
+      <c r="B21" s="137">
         <f>IFERROR(B53/B32*B7,0)</f>
         <v/>
       </c>
-      <c r="C21" s="102">
+      <c r="C21" s="137">
         <f>IFERROR(C53/C32*C7,0)</f>
         <v/>
       </c>
-      <c r="D21" s="102">
+      <c r="D21" s="137">
         <f>IFERROR(D53/D32*D7,0)</f>
         <v/>
       </c>
+      <c r="E21" s="127" t="n"/>
     </row>
     <row r="22" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A22" s="14" t="inlineStr">
@@ -2183,18 +2269,19 @@
           <t>Inventory Days (COGS Basis)</t>
         </is>
       </c>
-      <c r="B22" s="102">
+      <c r="B22" s="137">
         <f>IFERROR(B54/B33*B7,0)</f>
         <v/>
       </c>
-      <c r="C22" s="102">
+      <c r="C22" s="137">
         <f>IFERROR(C54/C33*C7,0)</f>
         <v/>
       </c>
-      <c r="D22" s="102">
+      <c r="D22" s="137">
         <f>IFERROR(D54/D33*D7,0)</f>
         <v/>
       </c>
+      <c r="E22" s="127" t="n"/>
     </row>
     <row r="23" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A23" s="14" t="inlineStr">
@@ -2202,18 +2289,19 @@
           <t>Payable Days (COGS Basis)</t>
         </is>
       </c>
-      <c r="B23" s="102">
+      <c r="B23" s="137">
         <f>IFERROR(B66/B33*$B$7,0)</f>
         <v/>
       </c>
-      <c r="C23" s="102">
+      <c r="C23" s="137">
         <f>IFERROR(C66/C33*$B$7,0)</f>
         <v/>
       </c>
-      <c r="D23" s="102">
+      <c r="D23" s="137">
         <f>IFERROR(D66/D33*$B$7,0)</f>
         <v/>
       </c>
+      <c r="E23" s="127" t="n"/>
     </row>
     <row r="24" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A24" s="14" t="inlineStr">
@@ -2221,18 +2309,19 @@
           <t>Income Tax Payable</t>
         </is>
       </c>
-      <c r="B24" s="101">
+      <c r="B24" s="136">
         <f>IFERROR(B71/B42*$B$7,0)</f>
         <v/>
       </c>
-      <c r="C24" s="101">
+      <c r="C24" s="136">
         <f>IFERROR(C71/C42*$B$7,0)</f>
         <v/>
       </c>
-      <c r="D24" s="101">
+      <c r="D24" s="136">
         <f>IFERROR(D71/D42*$B$7,0)</f>
         <v/>
       </c>
+      <c r="E24" s="127" t="n"/>
     </row>
     <row r="25" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A25" s="14" t="inlineStr">
@@ -2240,18 +2329,19 @@
           <t>Long Term Debt</t>
         </is>
       </c>
-      <c r="B25" s="102">
+      <c r="B25" s="137">
         <f>IFERROR(B74,0)</f>
         <v/>
       </c>
-      <c r="C25" s="102">
+      <c r="C25" s="137">
         <f>IFERROR(C74,0)</f>
         <v/>
       </c>
-      <c r="D25" s="102">
+      <c r="D25" s="137">
         <f>IFERROR(D74,0)</f>
         <v/>
       </c>
+      <c r="E25" s="127" t="n"/>
     </row>
     <row r="26" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A26" s="14" t="inlineStr">
@@ -2259,18 +2349,19 @@
           <t>Common Share Capital</t>
         </is>
       </c>
-      <c r="B26" s="102">
+      <c r="B26" s="137">
         <f>IFERROR(B76,0)</f>
         <v/>
       </c>
-      <c r="C26" s="102">
+      <c r="C26" s="137">
         <f>IFERROR(C76,0)</f>
         <v/>
       </c>
-      <c r="D26" s="102">
+      <c r="D26" s="137">
         <f>IFERROR(D76,0)</f>
         <v/>
       </c>
+      <c r="E26" s="127" t="n"/>
     </row>
     <row r="27" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A27" s="14" t="inlineStr">
@@ -2278,28 +2369,31 @@
           <t xml:space="preserve">Dividend Payout Ratio </t>
         </is>
       </c>
-      <c r="B27" s="101">
+      <c r="B27" s="136">
         <f>IFERROR(B45/B43,0)</f>
         <v/>
       </c>
-      <c r="C27" s="101">
+      <c r="C27" s="136">
         <f>IFERROR(C45/C43,0)</f>
         <v/>
       </c>
-      <c r="D27" s="101">
+      <c r="D27" s="136">
         <f>IFERROR(D45/D43,0)</f>
         <v/>
       </c>
+      <c r="E27" s="127" t="n"/>
     </row>
     <row r="28" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B28" s="104" t="n"/>
-      <c r="C28" s="104" t="n"/>
-      <c r="D28" s="104" t="n"/>
+      <c r="B28" s="139" t="n"/>
+      <c r="C28" s="139" t="n"/>
+      <c r="D28" s="139" t="n"/>
+      <c r="E28" s="127" t="n"/>
     </row>
     <row r="29" ht="14.5" customHeight="1">
-      <c r="B29" s="96" t="n"/>
-      <c r="C29" s="96" t="n"/>
-      <c r="D29" s="96" t="n"/>
+      <c r="B29" s="131" t="n"/>
+      <c r="C29" s="131" t="n"/>
+      <c r="D29" s="131" t="n"/>
+      <c r="E29" s="127" t="n"/>
     </row>
     <row r="30" ht="19.75" customFormat="1" customHeight="1" s="12">
       <c r="A30" s="10" t="inlineStr">
@@ -2307,15 +2401,17 @@
           <t>Income Statement</t>
         </is>
       </c>
-      <c r="B30" s="95" t="n"/>
-      <c r="C30" s="95" t="n"/>
-      <c r="D30" s="95" t="n"/>
+      <c r="B30" s="130" t="n"/>
+      <c r="C30" s="130" t="n"/>
+      <c r="D30" s="130" t="n"/>
+      <c r="E30" s="127" t="n"/>
     </row>
     <row r="31" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A31" s="13" t="n"/>
-      <c r="B31" s="96" t="n"/>
-      <c r="C31" s="96" t="n"/>
-      <c r="D31" s="96" t="n"/>
+      <c r="B31" s="131" t="n"/>
+      <c r="C31" s="131" t="n"/>
+      <c r="D31" s="131" t="n"/>
+      <c r="E31" s="127" t="n"/>
     </row>
     <row r="32" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A32" s="13" t="inlineStr">
@@ -2323,15 +2419,16 @@
           <t>Revenues</t>
         </is>
       </c>
-      <c r="B32" s="105" t="n">
+      <c r="B32" s="132" t="n">
         <v>520</v>
       </c>
-      <c r="C32" s="105" t="n">
+      <c r="C32" s="132" t="n">
         <v>590</v>
       </c>
-      <c r="D32" s="105" t="n">
+      <c r="D32" s="132" t="n">
         <v>650</v>
       </c>
+      <c r="E32" s="127" t="n"/>
     </row>
     <row r="33" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A33" s="14" t="inlineStr">
@@ -2339,15 +2436,16 @@
           <t>Cost of Goods Sold</t>
         </is>
       </c>
-      <c r="B33" s="106" t="n">
+      <c r="B33" s="140" t="n">
         <v>265</v>
       </c>
-      <c r="C33" s="106" t="n">
+      <c r="C33" s="140" t="n">
         <v>300</v>
       </c>
-      <c r="D33" s="106" t="n">
+      <c r="D33" s="140" t="n">
         <v>330</v>
       </c>
+      <c r="E33" s="127" t="n"/>
     </row>
     <row r="34" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A34" s="27" t="inlineStr">
@@ -2355,18 +2453,19 @@
           <t>Gross Profit</t>
         </is>
       </c>
-      <c r="B34" s="107">
+      <c r="B34" s="141">
         <f>B32-B33</f>
         <v/>
       </c>
-      <c r="C34" s="107">
+      <c r="C34" s="141">
         <f>C32-C33</f>
         <v/>
       </c>
-      <c r="D34" s="107">
+      <c r="D34" s="141">
         <f>D32-D33</f>
         <v/>
       </c>
+      <c r="E34" s="127" t="n"/>
     </row>
     <row r="35" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A35" s="14" t="inlineStr">
@@ -2374,15 +2473,16 @@
           <t>Distribution Expenses</t>
         </is>
       </c>
-      <c r="B35" s="105" t="n">
+      <c r="B35" s="132" t="n">
         <v>70</v>
       </c>
-      <c r="C35" s="105" t="n">
+      <c r="C35" s="132" t="n">
         <v>78</v>
       </c>
-      <c r="D35" s="105" t="n">
+      <c r="D35" s="132" t="n">
         <v>82</v>
       </c>
+      <c r="E35" s="127" t="n"/>
     </row>
     <row r="36" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A36" s="14" t="inlineStr">
@@ -2390,15 +2490,16 @@
           <t>Marketing and Administration</t>
         </is>
       </c>
-      <c r="B36" s="105" t="n">
+      <c r="B36" s="132" t="n">
         <v>120</v>
       </c>
-      <c r="C36" s="105" t="n">
+      <c r="C36" s="132" t="n">
         <v>130</v>
       </c>
-      <c r="D36" s="105" t="n">
+      <c r="D36" s="132" t="n">
         <v>140</v>
       </c>
+      <c r="E36" s="127" t="n"/>
     </row>
     <row r="37" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A37" s="14" t="inlineStr">
@@ -2406,15 +2507,16 @@
           <t>Research and Development</t>
         </is>
       </c>
-      <c r="B37" s="105" t="n">
+      <c r="B37" s="132" t="n">
         <v>15</v>
       </c>
-      <c r="C37" s="105" t="n">
+      <c r="C37" s="132" t="n">
         <v>16</v>
       </c>
-      <c r="D37" s="105" t="n">
+      <c r="D37" s="132" t="n">
         <v>18</v>
       </c>
+      <c r="E37" s="127" t="n"/>
     </row>
     <row r="38" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A38" s="14" t="inlineStr">
@@ -2422,15 +2524,16 @@
           <t>Depreciation</t>
         </is>
       </c>
-      <c r="B38" s="105" t="n">
+      <c r="B38" s="132" t="n">
         <v>14</v>
       </c>
-      <c r="C38" s="105" t="n">
+      <c r="C38" s="132" t="n">
         <v>15</v>
       </c>
-      <c r="D38" s="105" t="n">
+      <c r="D38" s="132" t="n">
         <v>15</v>
       </c>
+      <c r="E38" s="127" t="n"/>
     </row>
     <row r="39" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A39" s="27" t="inlineStr">
@@ -2438,19 +2541,19 @@
           <t>EBIT (Operating Profit)</t>
         </is>
       </c>
-      <c r="B39" s="108">
+      <c r="B39" s="142">
         <f>B34-SUM(B35:B38)</f>
         <v/>
       </c>
-      <c r="C39" s="108">
+      <c r="C39" s="142">
         <f>C34-SUM(C35:C38)</f>
         <v/>
       </c>
-      <c r="D39" s="108">
+      <c r="D39" s="142">
         <f>D34-SUM(D35:D38)</f>
         <v/>
       </c>
-      <c r="E39" s="17" t="n"/>
+      <c r="E39" s="143" t="n"/>
     </row>
     <row r="40" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A40" s="14" t="inlineStr">
@@ -2458,16 +2561,16 @@
           <t>Interest</t>
         </is>
       </c>
-      <c r="B40" s="105" t="n">
+      <c r="B40" s="132" t="n">
         <v>6</v>
       </c>
-      <c r="C40" s="105" t="n">
+      <c r="C40" s="132" t="n">
         <v>6.5</v>
       </c>
-      <c r="D40" s="105" t="n">
+      <c r="D40" s="132" t="n">
         <v>7</v>
       </c>
-      <c r="E40" s="17" t="n"/>
+      <c r="E40" s="143" t="n"/>
     </row>
     <row r="41" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A41" s="30" t="inlineStr">
@@ -2475,19 +2578,19 @@
           <t>Income Before Taxes</t>
         </is>
       </c>
-      <c r="B41" s="109">
+      <c r="B41" s="144">
         <f>B39-B40</f>
         <v/>
       </c>
-      <c r="C41" s="109">
+      <c r="C41" s="144">
         <f>C39-C40</f>
         <v/>
       </c>
-      <c r="D41" s="109">
+      <c r="D41" s="144">
         <f>D39-D40</f>
         <v/>
       </c>
-      <c r="E41" s="17" t="n"/>
+      <c r="E41" s="143" t="n"/>
     </row>
     <row r="42" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A42" s="14" t="inlineStr">
@@ -2495,18 +2598,19 @@
           <t>Taxes</t>
         </is>
       </c>
-      <c r="B42" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="B42" s="145">
+        <f>IF(B41&gt;0,B41*$B$8,0)</f>
+        <v/>
+      </c>
+      <c r="C42" s="145">
+        <f>IF(C41&gt;0,C41*$B$8,0)</f>
+        <v/>
+      </c>
+      <c r="D42" s="145">
+        <f>IF(D41&gt;0,D41*$B$8,0)</f>
+        <v/>
+      </c>
+      <c r="E42" s="143" t="n"/>
     </row>
     <row r="43" outlineLevel="1" ht="14.5" customHeight="1" thickBot="1">
       <c r="A43" s="32" t="inlineStr">
@@ -2514,24 +2618,26 @@
           <t>Net Income</t>
         </is>
       </c>
-      <c r="B43" s="110">
+      <c r="B43" s="146">
         <f>B41-B42</f>
         <v/>
       </c>
-      <c r="C43" s="110">
+      <c r="C43" s="146">
         <f>C41-C42</f>
         <v/>
       </c>
-      <c r="D43" s="110">
+      <c r="D43" s="146">
         <f>D41-D42</f>
         <v/>
       </c>
+      <c r="E43" s="127" t="n"/>
     </row>
     <row r="44" outlineLevel="1" ht="14.5" customHeight="1" thickTop="1">
       <c r="A44" s="13" t="n"/>
-      <c r="B44" s="107" t="n"/>
-      <c r="C44" s="107" t="n"/>
-      <c r="D44" s="107" t="n"/>
+      <c r="B44" s="147" t="n"/>
+      <c r="C44" s="147" t="n"/>
+      <c r="D44" s="147" t="n"/>
+      <c r="E44" s="127" t="n"/>
     </row>
     <row r="45" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A45" s="14" t="inlineStr">
@@ -2539,25 +2645,28 @@
           <t>Common Dividends</t>
         </is>
       </c>
-      <c r="B45" s="105" t="n">
+      <c r="B45" s="132" t="n">
         <v>5</v>
       </c>
-      <c r="C45" s="105" t="n">
+      <c r="C45" s="132" t="n">
         <v>8</v>
       </c>
-      <c r="D45" s="105" t="n">
+      <c r="D45" s="132" t="n">
         <v>10</v>
       </c>
+      <c r="E45" s="127" t="n"/>
     </row>
     <row r="46" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B46" s="97" t="n"/>
-      <c r="C46" s="97" t="n"/>
-      <c r="D46" s="97" t="n"/>
+      <c r="B46" s="132" t="n"/>
+      <c r="C46" s="132" t="n"/>
+      <c r="D46" s="132" t="n"/>
+      <c r="E46" s="127" t="n"/>
     </row>
     <row r="47" ht="14.5" customHeight="1">
-      <c r="B47" s="96" t="n"/>
-      <c r="C47" s="96" t="n"/>
-      <c r="D47" s="96" t="n"/>
+      <c r="B47" s="131" t="n"/>
+      <c r="C47" s="131" t="n"/>
+      <c r="D47" s="131" t="n"/>
+      <c r="E47" s="127" t="n"/>
     </row>
     <row r="48" ht="19.75" customFormat="1" customHeight="1" s="12">
       <c r="A48" s="10" t="inlineStr">
@@ -2565,15 +2674,17 @@
           <t>Balance Sheet</t>
         </is>
       </c>
-      <c r="B48" s="95" t="n"/>
-      <c r="C48" s="95" t="n"/>
-      <c r="D48" s="95" t="n"/>
+      <c r="B48" s="130" t="n"/>
+      <c r="C48" s="130" t="n"/>
+      <c r="D48" s="130" t="n"/>
+      <c r="E48" s="127" t="n"/>
     </row>
     <row r="49" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A49" s="13" t="n"/>
-      <c r="B49" s="96" t="n"/>
-      <c r="C49" s="96" t="n"/>
-      <c r="D49" s="96" t="n"/>
+      <c r="B49" s="131" t="n"/>
+      <c r="C49" s="131" t="n"/>
+      <c r="D49" s="131" t="n"/>
+      <c r="E49" s="127" t="n"/>
     </row>
     <row r="50" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A50" s="13" t="inlineStr">
@@ -2581,9 +2692,10 @@
           <t>ASSETS</t>
         </is>
       </c>
-      <c r="B50" s="96" t="n"/>
-      <c r="C50" s="96" t="n"/>
-      <c r="D50" s="96" t="n"/>
+      <c r="B50" s="131" t="n"/>
+      <c r="C50" s="131" t="n"/>
+      <c r="D50" s="131" t="n"/>
+      <c r="E50" s="127" t="n"/>
     </row>
     <row r="51" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A51" s="13" t="inlineStr">
@@ -2591,9 +2703,10 @@
           <t>Current Assets:</t>
         </is>
       </c>
-      <c r="B51" s="96" t="n"/>
-      <c r="C51" s="96" t="n"/>
-      <c r="D51" s="96" t="n"/>
+      <c r="B51" s="131" t="n"/>
+      <c r="C51" s="131" t="n"/>
+      <c r="D51" s="131" t="n"/>
+      <c r="E51" s="127" t="n"/>
     </row>
     <row r="52" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A52" s="14" t="inlineStr">
@@ -2601,15 +2714,16 @@
           <t>Cash</t>
         </is>
       </c>
-      <c r="B52" s="105" t="n">
+      <c r="B52" s="132" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="C52" s="105" t="n">
+      <c r="C52" s="132" t="n">
         <v>96.86500000000001</v>
       </c>
-      <c r="D52" s="105" t="n">
+      <c r="D52" s="132" t="n">
         <v>114.525</v>
       </c>
+      <c r="E52" s="127" t="n"/>
     </row>
     <row r="53" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A53" s="14" t="inlineStr">
@@ -2617,15 +2731,16 @@
           <t>Trade and Other Receivables</t>
         </is>
       </c>
-      <c r="B53" s="105" t="n">
+      <c r="B53" s="132" t="n">
         <v>55</v>
       </c>
-      <c r="C53" s="105" t="n">
+      <c r="C53" s="132" t="n">
         <v>62</v>
       </c>
-      <c r="D53" s="105" t="n">
+      <c r="D53" s="132" t="n">
         <v>68</v>
       </c>
+      <c r="E53" s="127" t="n"/>
     </row>
     <row r="54" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A54" s="14" t="inlineStr">
@@ -2633,15 +2748,16 @@
           <t>Inventories</t>
         </is>
       </c>
-      <c r="B54" s="105" t="n">
+      <c r="B54" s="132" t="n">
         <v>30</v>
       </c>
-      <c r="C54" s="105" t="n">
+      <c r="C54" s="132" t="n">
         <v>34</v>
       </c>
-      <c r="D54" s="105" t="n">
+      <c r="D54" s="132" t="n">
         <v>38</v>
       </c>
+      <c r="E54" s="127" t="n"/>
     </row>
     <row r="55" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A55" t="inlineStr">
@@ -2649,15 +2765,16 @@
           <t>Prepaid Expenses</t>
         </is>
       </c>
-      <c r="B55" s="98" t="n">
+      <c r="B55" s="131" t="n">
         <v>8</v>
       </c>
-      <c r="C55" s="98" t="n">
+      <c r="C55" s="131" t="n">
         <v>9</v>
       </c>
-      <c r="D55" s="98" t="n">
+      <c r="D55" s="131" t="n">
         <v>10</v>
       </c>
+      <c r="E55" s="127" t="n"/>
     </row>
     <row r="56" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A56" t="inlineStr">
@@ -2665,15 +2782,16 @@
           <t>Other Current Assets</t>
         </is>
       </c>
-      <c r="B56" s="98" t="n">
+      <c r="B56" s="131" t="n">
         <v>5</v>
       </c>
-      <c r="C56" s="98" t="n">
+      <c r="C56" s="131" t="n">
         <v>6</v>
       </c>
-      <c r="D56" s="98" t="n">
+      <c r="D56" s="131" t="n">
         <v>7</v>
       </c>
+      <c r="E56" s="127" t="n"/>
     </row>
     <row r="57" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A57" s="30" t="inlineStr">
@@ -2681,18 +2799,19 @@
           <t>Total Current Assets</t>
         </is>
       </c>
-      <c r="B57" s="108">
+      <c r="B57" s="142">
         <f>SUM(B52:B56)</f>
         <v/>
       </c>
-      <c r="C57" s="108">
+      <c r="C57" s="142">
         <f>SUM(C52:C56)</f>
         <v/>
       </c>
-      <c r="D57" s="108">
+      <c r="D57" s="142">
         <f>SUM(D52:D56)</f>
         <v/>
       </c>
+      <c r="E57" s="127" t="n"/>
     </row>
     <row r="58" outlineLevel="1" ht="14.5" customHeight="1" thickBot="1">
       <c r="A58" s="13" t="inlineStr">
@@ -2700,9 +2819,10 @@
           <t>Non-Current Assets:</t>
         </is>
       </c>
-      <c r="B58" s="107" t="n"/>
-      <c r="C58" s="107" t="n"/>
-      <c r="D58" s="107" t="n"/>
+      <c r="B58" s="147" t="n"/>
+      <c r="C58" s="147" t="n"/>
+      <c r="D58" s="147" t="n"/>
+      <c r="E58" s="127" t="n"/>
     </row>
     <row r="59" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A59" s="14" t="inlineStr">
@@ -2710,15 +2830,16 @@
           <t>Property Plant and Equipment - Gross</t>
         </is>
       </c>
-      <c r="B59" s="105" t="n">
+      <c r="B59" s="132" t="n">
         <v>160</v>
       </c>
-      <c r="C59" s="105" t="n">
+      <c r="C59" s="132" t="n">
         <v>190</v>
       </c>
-      <c r="D59" s="105" t="n">
+      <c r="D59" s="132" t="n">
         <v>215</v>
       </c>
+      <c r="E59" s="127" t="n"/>
     </row>
     <row r="60" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A60" t="inlineStr">
@@ -2726,15 +2847,16 @@
           <t>Less: Accumulated Depreciation</t>
         </is>
       </c>
-      <c r="B60" s="98" t="n">
+      <c r="B60" s="131" t="n">
         <v>40</v>
       </c>
-      <c r="C60" s="98" t="n">
+      <c r="C60" s="131" t="n">
         <v>55</v>
       </c>
-      <c r="D60" s="98" t="n">
+      <c r="D60" s="131" t="n">
         <v>70</v>
       </c>
+      <c r="E60" s="127" t="n"/>
     </row>
     <row r="61" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A61" t="inlineStr">
@@ -2742,18 +2864,19 @@
           <t>Property Plant and Equipment - Net</t>
         </is>
       </c>
-      <c r="B61" s="96">
+      <c r="B61" s="133">
         <f>B59-B60</f>
         <v/>
       </c>
-      <c r="C61" s="96">
+      <c r="C61" s="133">
         <f>C59-C60</f>
         <v/>
       </c>
-      <c r="D61" s="96">
+      <c r="D61" s="133">
         <f>D59-D60</f>
         <v/>
       </c>
+      <c r="E61" s="127" t="n"/>
     </row>
     <row r="62" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A62" s="35" t="inlineStr">
@@ -2761,23 +2884,25 @@
           <t>TOTAL ASSETS</t>
         </is>
       </c>
-      <c r="B62" s="111">
+      <c r="B62" s="148">
         <f>B57+B61</f>
         <v/>
       </c>
-      <c r="C62" s="111">
+      <c r="C62" s="148">
         <f>C57+C61</f>
         <v/>
       </c>
-      <c r="D62" s="111">
+      <c r="D62" s="148">
         <f>D57+D61</f>
         <v/>
       </c>
+      <c r="E62" s="127" t="n"/>
     </row>
     <row r="63" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B63" s="107" t="n"/>
-      <c r="C63" s="107" t="n"/>
-      <c r="D63" s="107" t="n"/>
+      <c r="B63" s="147" t="n"/>
+      <c r="C63" s="147" t="n"/>
+      <c r="D63" s="147" t="n"/>
+      <c r="E63" s="127" t="n"/>
     </row>
     <row r="64" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A64" s="13" t="inlineStr">
@@ -2785,9 +2910,10 @@
           <t>LIABILITIES AND SHAREHOLDERS' EQUITY</t>
         </is>
       </c>
-      <c r="B64" s="107" t="n"/>
-      <c r="C64" s="107" t="n"/>
-      <c r="D64" s="107" t="n"/>
+      <c r="B64" s="147" t="n"/>
+      <c r="C64" s="147" t="n"/>
+      <c r="D64" s="147" t="n"/>
+      <c r="E64" s="127" t="n"/>
     </row>
     <row r="65" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A65" s="13" t="inlineStr">
@@ -2795,9 +2921,10 @@
           <t>Current Liabilities:</t>
         </is>
       </c>
-      <c r="B65" s="107" t="n"/>
-      <c r="C65" s="107" t="n"/>
-      <c r="D65" s="107" t="n"/>
+      <c r="B65" s="147" t="n"/>
+      <c r="C65" s="147" t="n"/>
+      <c r="D65" s="147" t="n"/>
+      <c r="E65" s="127" t="n"/>
     </row>
     <row r="66" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A66" s="14" t="inlineStr">
@@ -2805,15 +2932,16 @@
           <t>Accounts Payable</t>
         </is>
       </c>
-      <c r="B66" s="105" t="n">
+      <c r="B66" s="132" t="n">
         <v>45</v>
       </c>
-      <c r="C66" s="105" t="n">
+      <c r="C66" s="132" t="n">
         <v>52</v>
       </c>
-      <c r="D66" s="105" t="n">
+      <c r="D66" s="132" t="n">
         <v>58</v>
       </c>
+      <c r="E66" s="127" t="n"/>
     </row>
     <row r="67" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A67" t="inlineStr">
@@ -2821,15 +2949,16 @@
           <t>Accrued Payroll</t>
         </is>
       </c>
-      <c r="B67" s="98" t="n">
+      <c r="B67" s="131" t="n">
         <v>12</v>
       </c>
-      <c r="C67" s="98" t="n">
+      <c r="C67" s="131" t="n">
         <v>13</v>
       </c>
-      <c r="D67" s="98" t="n">
+      <c r="D67" s="131" t="n">
         <v>14</v>
       </c>
+      <c r="E67" s="127" t="n"/>
     </row>
     <row r="68" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A68" t="inlineStr">
@@ -2837,15 +2966,16 @@
           <t>Deferred Revenue</t>
         </is>
       </c>
-      <c r="B68" s="98" t="n">
+      <c r="B68" s="131" t="n">
         <v>10</v>
       </c>
-      <c r="C68" s="98" t="n">
+      <c r="C68" s="131" t="n">
         <v>11</v>
       </c>
-      <c r="D68" s="98" t="n">
+      <c r="D68" s="131" t="n">
         <v>12</v>
       </c>
+      <c r="E68" s="127" t="n"/>
     </row>
     <row r="69" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A69" t="inlineStr">
@@ -2853,15 +2983,16 @@
           <t>Interest Payable</t>
         </is>
       </c>
-      <c r="B69" s="98" t="n">
+      <c r="B69" s="131" t="n">
         <v>2</v>
       </c>
-      <c r="C69" s="98" t="n">
+      <c r="C69" s="131" t="n">
         <v>2.5</v>
       </c>
-      <c r="D69" s="98" t="n">
+      <c r="D69" s="131" t="n">
         <v>3</v>
       </c>
+      <c r="E69" s="127" t="n"/>
     </row>
     <row r="70" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A70" t="inlineStr">
@@ -2869,15 +3000,16 @@
           <t>Other Current Liabilities</t>
         </is>
       </c>
-      <c r="B70" s="98" t="n">
+      <c r="B70" s="131" t="n">
         <v>5</v>
       </c>
-      <c r="C70" s="98" t="n">
+      <c r="C70" s="131" t="n">
         <v>6</v>
       </c>
-      <c r="D70" s="98" t="n">
+      <c r="D70" s="131" t="n">
         <v>6.5</v>
       </c>
+      <c r="E70" s="127" t="n"/>
     </row>
     <row r="71" outlineLevel="1" ht="14.5" customHeight="1" thickBot="1">
       <c r="A71" s="14" t="inlineStr">
@@ -2885,15 +3017,16 @@
           <t>Income Taxes Payable</t>
         </is>
       </c>
-      <c r="B71" s="105" t="n">
+      <c r="B71" s="132" t="n">
         <v>3</v>
       </c>
-      <c r="C71" s="105" t="n">
+      <c r="C71" s="132" t="n">
         <v>4</v>
       </c>
-      <c r="D71" s="105" t="n">
+      <c r="D71" s="132" t="n">
         <v>5</v>
       </c>
+      <c r="E71" s="127" t="n"/>
     </row>
     <row r="72" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A72" s="30" t="inlineStr">
@@ -2901,18 +3034,19 @@
           <t>Total Current Liabilities:</t>
         </is>
       </c>
-      <c r="B72" s="108">
+      <c r="B72" s="142">
         <f>SUM(B66:B71)</f>
         <v/>
       </c>
-      <c r="C72" s="108">
+      <c r="C72" s="142">
         <f>SUM(C66:C71)</f>
         <v/>
       </c>
-      <c r="D72" s="108">
+      <c r="D72" s="142">
         <f>SUM(D66:D71)</f>
         <v/>
       </c>
+      <c r="E72" s="127" t="n"/>
     </row>
     <row r="73" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A73" s="13" t="inlineStr">
@@ -2920,9 +3054,10 @@
           <t>Non-Current Liabilities:</t>
         </is>
       </c>
-      <c r="B73" s="107" t="n"/>
-      <c r="C73" s="107" t="n"/>
-      <c r="D73" s="107" t="n"/>
+      <c r="B73" s="147" t="n"/>
+      <c r="C73" s="147" t="n"/>
+      <c r="D73" s="147" t="n"/>
+      <c r="E73" s="127" t="n"/>
     </row>
     <row r="74" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A74" s="14" t="inlineStr">
@@ -2930,15 +3065,16 @@
           <t>Long-Term Debt</t>
         </is>
       </c>
-      <c r="B74" s="105" t="n">
+      <c r="B74" s="132" t="n">
         <v>60</v>
       </c>
-      <c r="C74" s="105" t="n">
+      <c r="C74" s="132" t="n">
         <v>70</v>
       </c>
-      <c r="D74" s="105" t="n">
+      <c r="D74" s="132" t="n">
         <v>65</v>
       </c>
+      <c r="E74" s="127" t="n"/>
     </row>
     <row r="75" ht="14.5" customHeight="1">
       <c r="A75" s="13" t="inlineStr">
@@ -2946,9 +3082,10 @@
           <t>Shareholder's Equity:</t>
         </is>
       </c>
-      <c r="B75" s="107" t="n"/>
-      <c r="C75" s="107" t="n"/>
-      <c r="D75" s="107" t="n"/>
+      <c r="B75" s="147" t="n"/>
+      <c r="C75" s="147" t="n"/>
+      <c r="D75" s="147" t="n"/>
+      <c r="E75" s="127" t="n"/>
     </row>
     <row r="76" ht="19.75" customFormat="1" customHeight="1" s="12">
       <c r="A76" s="14" t="inlineStr">
@@ -2956,15 +3093,16 @@
           <t>Common Stock and Additional Paid-In Capital</t>
         </is>
       </c>
-      <c r="B76" s="105" t="n">
+      <c r="B76" s="132" t="n">
         <v>80</v>
       </c>
-      <c r="C76" s="105" t="n">
+      <c r="C76" s="132" t="n">
         <v>85</v>
       </c>
-      <c r="D76" s="105" t="n">
+      <c r="D76" s="132" t="n">
         <v>85</v>
       </c>
+      <c r="E76" s="127" t="n"/>
     </row>
     <row r="77" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A77" s="14" t="inlineStr">
@@ -2972,18 +3110,18 @@
           <t>Retained Earnings</t>
         </is>
       </c>
-      <c r="B77" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
+      <c r="B77" s="132" t="n">
+        <v>73.10000000000002</v>
+      </c>
+      <c r="C77" s="145">
+        <f>B77+C43-C45</f>
+        <v/>
+      </c>
+      <c r="D77" s="145">
+        <f>C77+D43-D45</f>
+        <v/>
+      </c>
+      <c r="E77" s="127" t="n"/>
     </row>
     <row r="78" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A78" s="27" t="inlineStr">
@@ -2991,18 +3129,19 @@
           <t>Total Shareholders' Equity</t>
         </is>
       </c>
-      <c r="B78" s="112">
+      <c r="B78" s="149">
         <f>SUM(B76,B77)</f>
         <v/>
       </c>
-      <c r="C78" s="112">
+      <c r="C78" s="149">
         <f>SUM(C76,C77)</f>
         <v/>
       </c>
-      <c r="D78" s="112">
+      <c r="D78" s="149">
         <f>SUM(D76,D77)</f>
         <v/>
       </c>
+      <c r="E78" s="127" t="n"/>
     </row>
     <row r="79" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A79" s="35" t="inlineStr">
@@ -3010,23 +3149,25 @@
           <t>TOTAL LIABILITIES AND SHAREHOLDERS' EQUITY</t>
         </is>
       </c>
-      <c r="B79" s="111">
+      <c r="B79" s="148">
         <f>B78+B74+B72</f>
         <v/>
       </c>
-      <c r="C79" s="111">
+      <c r="C79" s="148">
         <f>C78+C74+C72</f>
         <v/>
       </c>
-      <c r="D79" s="111">
+      <c r="D79" s="148">
         <f>D78+D74+D72</f>
         <v/>
       </c>
+      <c r="E79" s="127" t="n"/>
     </row>
     <row r="80" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B80" s="107" t="n"/>
-      <c r="C80" s="107" t="n"/>
-      <c r="D80" s="107" t="n"/>
+      <c r="B80" s="147" t="n"/>
+      <c r="C80" s="147" t="n"/>
+      <c r="D80" s="147" t="n"/>
+      <c r="E80" s="127" t="n"/>
     </row>
     <row r="81" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A81" s="39" t="inlineStr">
@@ -3034,28 +3175,31 @@
           <t>Check</t>
         </is>
       </c>
-      <c r="B81" s="113">
+      <c r="B81" s="150">
         <f>IFERROR(IF(ABS(B52-B114)&lt;0.01,0,B52-B114),0)</f>
         <v/>
       </c>
-      <c r="C81" s="113">
+      <c r="C81" s="150">
         <f>IFERROR(IF(ABS(C52-C114)&lt;0.01,0,C52-C114),0)</f>
         <v/>
       </c>
-      <c r="D81" s="113">
+      <c r="D81" s="150">
         <f>IFERROR(IF(ABS(D52-D114)&lt;0.01,0,D52-D114),0)</f>
         <v/>
       </c>
+      <c r="E81" s="127" t="n"/>
     </row>
     <row r="82" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B82" s="96" t="n"/>
-      <c r="C82" s="96" t="n"/>
-      <c r="D82" s="96" t="n"/>
+      <c r="B82" s="131" t="n"/>
+      <c r="C82" s="131" t="n"/>
+      <c r="D82" s="131" t="n"/>
+      <c r="E82" s="127" t="n"/>
     </row>
     <row r="83" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B83" s="96" t="n"/>
-      <c r="C83" s="96" t="n"/>
-      <c r="D83" s="96" t="n"/>
+      <c r="B83" s="131" t="n"/>
+      <c r="C83" s="131" t="n"/>
+      <c r="D83" s="131" t="n"/>
+      <c r="E83" s="127" t="n"/>
     </row>
     <row r="84" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A84" s="10" t="inlineStr">
@@ -3063,15 +3207,17 @@
           <t>Cash Flow Statement</t>
         </is>
       </c>
-      <c r="B84" s="114" t="n"/>
-      <c r="C84" s="114" t="n"/>
-      <c r="D84" s="114" t="n"/>
+      <c r="B84" s="151" t="n"/>
+      <c r="C84" s="151" t="n"/>
+      <c r="D84" s="151" t="n"/>
+      <c r="E84" s="127" t="n"/>
     </row>
     <row r="85" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A85" s="13" t="n"/>
-      <c r="B85" s="97" t="n"/>
-      <c r="C85" s="97" t="n"/>
-      <c r="D85" s="97" t="n"/>
+      <c r="B85" s="132" t="n"/>
+      <c r="C85" s="132" t="n"/>
+      <c r="D85" s="132" t="n"/>
+      <c r="E85" s="127" t="n"/>
     </row>
     <row r="86" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A86" s="13" t="inlineStr">
@@ -3079,9 +3225,10 @@
           <t>Cash Flows from Operating Activities:</t>
         </is>
       </c>
-      <c r="B86" s="115" t="n"/>
-      <c r="C86" s="115" t="n"/>
-      <c r="D86" s="115" t="n"/>
+      <c r="B86" s="152" t="n"/>
+      <c r="C86" s="152" t="n"/>
+      <c r="D86" s="152" t="n"/>
+      <c r="E86" s="127" t="n"/>
     </row>
     <row r="87" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A87" s="14" t="inlineStr">
@@ -3089,18 +3236,19 @@
           <t>Net Income</t>
         </is>
       </c>
-      <c r="B87" s="97">
+      <c r="B87" s="145">
         <f>B43</f>
         <v/>
       </c>
-      <c r="C87" s="97">
+      <c r="C87" s="145">
         <f>C43</f>
         <v/>
       </c>
-      <c r="D87" s="97">
+      <c r="D87" s="145">
         <f>D43</f>
         <v/>
       </c>
+      <c r="E87" s="127" t="n"/>
     </row>
     <row r="88" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A88" s="14" t="inlineStr">
@@ -3108,18 +3256,19 @@
           <t>Depreciation</t>
         </is>
       </c>
-      <c r="B88" s="97">
+      <c r="B88" s="145">
         <f>B38</f>
         <v/>
       </c>
-      <c r="C88" s="97">
+      <c r="C88" s="145">
         <f>C38</f>
         <v/>
       </c>
-      <c r="D88" s="97">
+      <c r="D88" s="145">
         <f>D38</f>
         <v/>
       </c>
+      <c r="E88" s="127" t="n"/>
     </row>
     <row r="89" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A89" s="14" t="inlineStr">
@@ -3127,9 +3276,10 @@
           <t>Changes in Operating Assets and Liabilities:</t>
         </is>
       </c>
-      <c r="B89" s="97" t="n"/>
-      <c r="C89" s="97" t="n"/>
-      <c r="D89" s="97" t="n"/>
+      <c r="B89" s="132" t="n"/>
+      <c r="C89" s="132" t="n"/>
+      <c r="D89" s="132" t="n"/>
+      <c r="E89" s="127" t="n"/>
     </row>
     <row r="90" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A90" s="42" t="inlineStr">
@@ -3137,17 +3287,18 @@
           <t>Change in Accounts Receivable</t>
         </is>
       </c>
-      <c r="B90" s="97" t="n">
+      <c r="B90" s="132" t="n">
         <v>0</v>
       </c>
-      <c r="C90" s="97">
+      <c r="C90" s="145">
         <f>B53-C53</f>
         <v/>
       </c>
-      <c r="D90" s="97">
+      <c r="D90" s="145">
         <f>C53-D53</f>
         <v/>
       </c>
+      <c r="E90" s="127" t="n"/>
     </row>
     <row r="91" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A91" s="42" t="inlineStr">
@@ -3155,17 +3306,18 @@
           <t>Change in Inventory</t>
         </is>
       </c>
-      <c r="B91" s="97" t="n">
+      <c r="B91" s="132" t="n">
         <v>0</v>
       </c>
-      <c r="C91" s="97">
+      <c r="C91" s="145">
         <f>B54-C54</f>
         <v/>
       </c>
-      <c r="D91" s="97">
+      <c r="D91" s="145">
         <f>C54-D54</f>
         <v/>
       </c>
+      <c r="E91" s="127" t="n"/>
     </row>
     <row r="92" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A92" t="inlineStr">
@@ -3173,17 +3325,18 @@
           <t>Change in Prepaid Expenses</t>
         </is>
       </c>
-      <c r="B92" s="96" t="n">
+      <c r="B92" s="131" t="n">
         <v>0</v>
       </c>
-      <c r="C92" s="96">
+      <c r="C92" s="133">
         <f>B55-C55</f>
         <v/>
       </c>
-      <c r="D92" s="96">
+      <c r="D92" s="133">
         <f>C55-D55</f>
         <v/>
       </c>
+      <c r="E92" s="127" t="n"/>
     </row>
     <row r="93" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A93" t="inlineStr">
@@ -3191,17 +3344,18 @@
           <t>Change in Other Current Assets</t>
         </is>
       </c>
-      <c r="B93" s="96" t="n">
+      <c r="B93" s="131" t="n">
         <v>0</v>
       </c>
-      <c r="C93" s="96">
+      <c r="C93" s="133">
         <f>B56-C56</f>
         <v/>
       </c>
-      <c r="D93" s="96">
+      <c r="D93" s="133">
         <f>C56-D56</f>
         <v/>
       </c>
+      <c r="E93" s="127" t="n"/>
     </row>
     <row r="94" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A94" s="42" t="inlineStr">
@@ -3209,17 +3363,18 @@
           <t>Change in Accounts Payable</t>
         </is>
       </c>
-      <c r="B94" s="97" t="n">
+      <c r="B94" s="132" t="n">
         <v>0</v>
       </c>
-      <c r="C94" s="97">
+      <c r="C94" s="145">
         <f>C66-B66</f>
         <v/>
       </c>
-      <c r="D94" s="97">
+      <c r="D94" s="145">
         <f>D66-C66</f>
         <v/>
       </c>
+      <c r="E94" s="127" t="n"/>
     </row>
     <row r="95" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A95" t="inlineStr">
@@ -3227,17 +3382,18 @@
           <t>Change in Accrued Payroll</t>
         </is>
       </c>
-      <c r="B95" s="96" t="n">
+      <c r="B95" s="131" t="n">
         <v>0</v>
       </c>
-      <c r="C95" s="96">
+      <c r="C95" s="133">
         <f>C67-B67</f>
         <v/>
       </c>
-      <c r="D95" s="96">
+      <c r="D95" s="133">
         <f>D67-C67</f>
         <v/>
       </c>
+      <c r="E95" s="127" t="n"/>
     </row>
     <row r="96" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A96" t="inlineStr">
@@ -3245,17 +3401,18 @@
           <t>Change in Deferred Revenue</t>
         </is>
       </c>
-      <c r="B96" s="96" t="n">
+      <c r="B96" s="131" t="n">
         <v>0</v>
       </c>
-      <c r="C96" s="96">
+      <c r="C96" s="133">
         <f>C68-B68</f>
         <v/>
       </c>
-      <c r="D96" s="96">
+      <c r="D96" s="133">
         <f>D68-C68</f>
         <v/>
       </c>
+      <c r="E96" s="127" t="n"/>
     </row>
     <row r="97" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A97" t="inlineStr">
@@ -3263,17 +3420,18 @@
           <t>Change in Interest Payable</t>
         </is>
       </c>
-      <c r="B97" s="96" t="n">
+      <c r="B97" s="131" t="n">
         <v>0</v>
       </c>
-      <c r="C97" s="96">
+      <c r="C97" s="133">
         <f>C69-B69</f>
         <v/>
       </c>
-      <c r="D97" s="96">
+      <c r="D97" s="133">
         <f>D69-C69</f>
         <v/>
       </c>
+      <c r="E97" s="127" t="n"/>
     </row>
     <row r="98" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A98" t="inlineStr">
@@ -3281,17 +3439,18 @@
           <t>Change in Other Current Liabilities</t>
         </is>
       </c>
-      <c r="B98" s="96" t="n">
+      <c r="B98" s="131" t="n">
         <v>0</v>
       </c>
-      <c r="C98" s="96">
+      <c r="C98" s="133">
         <f>C70-B70</f>
         <v/>
       </c>
-      <c r="D98" s="96">
+      <c r="D98" s="133">
         <f>D70-C70</f>
         <v/>
       </c>
+      <c r="E98" s="127" t="n"/>
     </row>
     <row r="99" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A99" s="42" t="inlineStr">
@@ -3299,17 +3458,18 @@
           <t>Change in Income Taxes Payable</t>
         </is>
       </c>
-      <c r="B99" s="97" t="n">
+      <c r="B99" s="132" t="n">
         <v>0</v>
       </c>
-      <c r="C99" s="97">
+      <c r="C99" s="145">
         <f>C71-B71</f>
         <v/>
       </c>
-      <c r="D99" s="97">
+      <c r="D99" s="145">
         <f>D71-C71</f>
         <v/>
       </c>
+      <c r="E99" s="127" t="n"/>
     </row>
     <row r="100" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A100" s="30" t="inlineStr">
@@ -3317,24 +3477,26 @@
           <t>Net Cash Provided by Operating Activities</t>
         </is>
       </c>
-      <c r="B100" s="116">
+      <c r="B100" s="153">
         <f>SUM(B87:B99)</f>
         <v/>
       </c>
-      <c r="C100" s="116">
+      <c r="C100" s="153">
         <f>SUM(C87:C99)</f>
         <v/>
       </c>
-      <c r="D100" s="116">
+      <c r="D100" s="153">
         <f>SUM(D87:D99)</f>
         <v/>
       </c>
+      <c r="E100" s="127" t="n"/>
     </row>
     <row r="101" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A101" s="14" t="inlineStr"/>
-      <c r="B101" s="97" t="n"/>
-      <c r="C101" s="97" t="n"/>
-      <c r="D101" s="97" t="n"/>
+      <c r="B101" s="132" t="n"/>
+      <c r="C101" s="132" t="n"/>
+      <c r="D101" s="132" t="n"/>
+      <c r="E101" s="127" t="n"/>
     </row>
     <row r="102" ht="14.5" customHeight="1">
       <c r="A102" s="13" t="inlineStr">
@@ -3342,9 +3504,10 @@
           <t>Investing Activities:</t>
         </is>
       </c>
-      <c r="B102" s="97" t="n"/>
-      <c r="C102" s="97" t="n"/>
-      <c r="D102" s="97" t="n"/>
+      <c r="B102" s="132" t="n"/>
+      <c r="C102" s="132" t="n"/>
+      <c r="D102" s="132" t="n"/>
+      <c r="E102" s="127" t="n"/>
     </row>
     <row r="103" ht="19.75" customFormat="1" customHeight="1" s="12">
       <c r="A103" s="14" t="inlineStr">
@@ -3352,15 +3515,16 @@
           <t>Acquisitions of Property and Equipment</t>
         </is>
       </c>
-      <c r="B103" s="105" t="n">
+      <c r="B103" s="132" t="n">
         <v>-20</v>
       </c>
-      <c r="C103" s="105" t="n">
+      <c r="C103" s="132" t="n">
         <v>-29.99999999999999</v>
       </c>
-      <c r="D103" s="105" t="n">
+      <c r="D103" s="132" t="n">
         <v>-24.99999999999997</v>
       </c>
+      <c r="E103" s="127" t="n"/>
     </row>
     <row r="104" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A104" s="30" t="inlineStr">
@@ -3368,24 +3532,26 @@
           <t>Cash Flows from Investing Activities</t>
         </is>
       </c>
-      <c r="B104" s="116">
+      <c r="B104" s="153">
         <f>SUM(B103:B103)</f>
         <v/>
       </c>
-      <c r="C104" s="116">
+      <c r="C104" s="153">
         <f>SUM(C103:C103)</f>
         <v/>
       </c>
-      <c r="D104" s="116">
+      <c r="D104" s="153">
         <f>SUM(D103:D103)</f>
         <v/>
       </c>
+      <c r="E104" s="127" t="n"/>
     </row>
     <row r="105" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A105" s="14" t="inlineStr"/>
-      <c r="B105" s="97" t="n"/>
-      <c r="C105" s="97" t="n"/>
-      <c r="D105" s="97" t="n"/>
+      <c r="B105" s="132" t="n"/>
+      <c r="C105" s="132" t="n"/>
+      <c r="D105" s="132" t="n"/>
+      <c r="E105" s="127" t="n"/>
     </row>
     <row r="106" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A106" s="13" t="inlineStr">
@@ -3393,9 +3559,10 @@
           <t>Financing Activities:</t>
         </is>
       </c>
-      <c r="B106" s="97" t="n"/>
-      <c r="C106" s="97" t="n"/>
-      <c r="D106" s="97" t="n"/>
+      <c r="B106" s="132" t="n"/>
+      <c r="C106" s="132" t="n"/>
+      <c r="D106" s="132" t="n"/>
+      <c r="E106" s="127" t="n"/>
     </row>
     <row r="107" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A107" s="14" t="inlineStr">
@@ -3403,17 +3570,18 @@
           <t>Issuance of Common Stock</t>
         </is>
       </c>
-      <c r="B107" s="97" t="n">
+      <c r="B107" s="132" t="n">
         <v>0</v>
       </c>
-      <c r="C107" s="97">
+      <c r="C107" s="145">
         <f>C76-B76</f>
         <v/>
       </c>
-      <c r="D107" s="97">
+      <c r="D107" s="145">
         <f>D76-C76</f>
         <v/>
       </c>
+      <c r="E107" s="127" t="n"/>
     </row>
     <row r="108" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A108" s="14" t="inlineStr">
@@ -3421,18 +3589,19 @@
           <t>Dividends (current year)</t>
         </is>
       </c>
-      <c r="B108" s="97">
+      <c r="B108" s="145">
         <f>-B45</f>
         <v/>
       </c>
-      <c r="C108" s="97">
+      <c r="C108" s="145">
         <f>-C45</f>
         <v/>
       </c>
-      <c r="D108" s="97">
+      <c r="D108" s="145">
         <f>-D45</f>
         <v/>
       </c>
+      <c r="E108" s="127" t="n"/>
     </row>
     <row r="109" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A109" s="14" t="inlineStr">
@@ -3440,17 +3609,18 @@
           <t>Increase/(Decrease) in Long-Term Debt</t>
         </is>
       </c>
-      <c r="B109" s="97" t="n">
+      <c r="B109" s="132" t="n">
         <v>0</v>
       </c>
-      <c r="C109" s="97">
+      <c r="C109" s="145">
         <f>C74-B74</f>
         <v/>
       </c>
-      <c r="D109" s="97">
+      <c r="D109" s="145">
         <f>D74-C74</f>
         <v/>
       </c>
+      <c r="E109" s="127" t="n"/>
     </row>
     <row r="110" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A110" s="30" t="inlineStr">
@@ -3458,24 +3628,26 @@
           <t>Cash Flows from Financing Activities</t>
         </is>
       </c>
-      <c r="B110" s="116">
+      <c r="B110" s="153">
         <f>SUM(B107:B109)</f>
         <v/>
       </c>
-      <c r="C110" s="116">
+      <c r="C110" s="153">
         <f>SUM(C107:C109)</f>
         <v/>
       </c>
-      <c r="D110" s="116">
+      <c r="D110" s="153">
         <f>SUM(D107:D109)</f>
         <v/>
       </c>
+      <c r="E110" s="127" t="n"/>
     </row>
     <row r="111" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A111" s="14" t="inlineStr"/>
-      <c r="B111" s="97" t="n"/>
-      <c r="C111" s="97" t="n"/>
-      <c r="D111" s="97" t="n"/>
+      <c r="B111" s="132" t="n"/>
+      <c r="C111" s="132" t="n"/>
+      <c r="D111" s="132" t="n"/>
+      <c r="E111" s="127" t="n"/>
     </row>
     <row r="112" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A112" s="13" t="inlineStr">
@@ -3483,18 +3655,19 @@
           <t>Increase/(Decrease) in Cash and Equivalents</t>
         </is>
       </c>
-      <c r="B112" s="97">
+      <c r="B112" s="145">
         <f>B100+B104+B110</f>
         <v/>
       </c>
-      <c r="C112" s="97">
+      <c r="C112" s="145">
         <f>C100+C104+C110</f>
         <v/>
       </c>
-      <c r="D112" s="97">
+      <c r="D112" s="145">
         <f>D100+D104+D110</f>
         <v/>
       </c>
+      <c r="E112" s="127" t="n"/>
     </row>
     <row r="113" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A113" s="14" t="inlineStr">
@@ -3502,17 +3675,18 @@
           <t>Cash and Equivalents, Beginning of the Year</t>
         </is>
       </c>
-      <c r="B113" s="105" t="n">
+      <c r="B113" s="132" t="n">
         <v>60</v>
       </c>
-      <c r="C113" s="97">
+      <c r="C113" s="145">
         <f>B114</f>
         <v/>
       </c>
-      <c r="D113" s="97">
+      <c r="D113" s="145">
         <f>C114</f>
         <v/>
       </c>
+      <c r="E113" s="127" t="n"/>
     </row>
     <row r="114" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A114" s="44" t="inlineStr">
@@ -3520,38 +3694,43 @@
           <t>Cash and Equivalents, End of the Year</t>
         </is>
       </c>
-      <c r="B114" s="117">
+      <c r="B114" s="154">
         <f>B113+B112</f>
         <v/>
       </c>
-      <c r="C114" s="117">
+      <c r="C114" s="154">
         <f>C113+C112</f>
         <v/>
       </c>
-      <c r="D114" s="117">
+      <c r="D114" s="154">
         <f>D113+D112</f>
         <v/>
       </c>
+      <c r="E114" s="127" t="n"/>
     </row>
     <row r="115" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B115" s="96" t="n"/>
-      <c r="C115" s="96" t="n"/>
-      <c r="D115" s="96" t="n"/>
+      <c r="B115" s="131" t="n"/>
+      <c r="C115" s="131" t="n"/>
+      <c r="D115" s="131" t="n"/>
+      <c r="E115" s="127" t="n"/>
     </row>
     <row r="116" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B116" s="118" t="n"/>
-      <c r="C116" s="118" t="n"/>
-      <c r="D116" s="118" t="n"/>
+      <c r="B116" s="155" t="n"/>
+      <c r="C116" s="155" t="n"/>
+      <c r="D116" s="155" t="n"/>
+      <c r="E116" s="127" t="n"/>
     </row>
     <row r="117" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B117" s="97" t="n"/>
-      <c r="C117" s="97" t="n"/>
-      <c r="D117" s="97" t="n"/>
+      <c r="B117" s="132" t="n"/>
+      <c r="C117" s="132" t="n"/>
+      <c r="D117" s="132" t="n"/>
+      <c r="E117" s="127" t="n"/>
     </row>
     <row r="118" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B118" s="97" t="n"/>
-      <c r="C118" s="97" t="n"/>
-      <c r="D118" s="97" t="n"/>
+      <c r="B118" s="132" t="n"/>
+      <c r="C118" s="132" t="n"/>
+      <c r="D118" s="132" t="n"/>
+      <c r="E118" s="127" t="n"/>
     </row>
     <row r="119" outlineLevel="1" ht="14.5" customHeight="1"/>
     <row r="120" outlineLevel="1" ht="14.5" customHeight="1"/>

--- a/assets/templates/Financial_Model_SAMPLE_DEMO_USD_thousands_GAAP.xlsx
+++ b/assets/templates/Financial_Model_SAMPLE_DEMO_USD_thousands_GAAP.xlsx
@@ -45,7 +45,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.000_);\(#,##0.000\)"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="25">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -184,24 +184,6 @@
       <b val="1"/>
       <sz val="11"/>
     </font>
-    <font>
-      <color rgb="00000000"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="001F4E79"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <color rgb="001F4E79"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="001F4E79"/>
-      <sz val="11"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -322,7 +304,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="37" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -552,55 +534,6 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="27" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="38" fontId="25" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="40" fontId="25" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="165" fontId="27" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1915,7 +1848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
@@ -1960,29 +1893,27 @@
     <row r="3" ht="14.5" customFormat="1" customHeight="1" s="58">
       <c r="A3" s="59" t="inlineStr">
         <is>
-          <t>Balance Sheet Check (Assets - L+E)</t>
-        </is>
-      </c>
-      <c r="B3" s="126">
+          <t>Balance Sheet Check (A - L + E)</t>
+        </is>
+      </c>
+      <c r="B3" s="92">
         <f>IFERROR(IF(ABS(B62-B79)&lt;0.01,0,B62-B79),0)</f>
         <v/>
       </c>
-      <c r="C3" s="126">
+      <c r="C3" s="92">
         <f>IFERROR(IF(ABS(C62-C79)&lt;0.01,0,C62-C79),0)</f>
         <v/>
       </c>
-      <c r="D3" s="126">
+      <c r="D3" s="92">
         <f>IFERROR(IF(ABS(D62-D79)&lt;0.01,0,D62-D79),0)</f>
         <v/>
       </c>
-      <c r="E3" s="127" t="n"/>
     </row>
     <row r="4" ht="14.5" customFormat="1" customHeight="1" s="58">
       <c r="A4" s="59" t="n"/>
-      <c r="B4" s="128" t="n"/>
-      <c r="C4" s="129" t="n"/>
-      <c r="D4" s="129" t="n"/>
-      <c r="E4" s="127" t="n"/>
+      <c r="B4" s="93" t="n"/>
+      <c r="C4" s="94" t="n"/>
+      <c r="D4" s="94" t="n"/>
     </row>
     <row r="5" ht="19.75" customFormat="1" customHeight="1" s="12">
       <c r="A5" s="10" t="inlineStr">
@@ -1990,17 +1921,15 @@
           <t>Assumptions &amp; Drivers</t>
         </is>
       </c>
-      <c r="B5" s="130" t="n"/>
-      <c r="C5" s="130" t="n"/>
-      <c r="D5" s="130" t="n"/>
-      <c r="E5" s="127" t="n"/>
+      <c r="B5" s="95" t="n"/>
+      <c r="C5" s="95" t="n"/>
+      <c r="D5" s="95" t="n"/>
     </row>
     <row r="6" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A6" s="13" t="n"/>
-      <c r="B6" s="131" t="n"/>
-      <c r="C6" s="131" t="n"/>
-      <c r="D6" s="131" t="n"/>
-      <c r="E6" s="127" t="n"/>
+      <c r="B6" s="96" t="n"/>
+      <c r="C6" s="96" t="n"/>
+      <c r="D6" s="96" t="n"/>
     </row>
     <row r="7" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A7" s="13" t="inlineStr">
@@ -2008,16 +1937,15 @@
           <t>Days in Period</t>
         </is>
       </c>
-      <c r="B7" s="132" t="n">
+      <c r="B7" s="97" t="n">
         <v>365</v>
       </c>
-      <c r="C7" s="132" t="n">
+      <c r="C7" s="97" t="n">
         <v>365</v>
       </c>
-      <c r="D7" s="132" t="n">
+      <c r="D7" s="97" t="n">
         <v>365</v>
       </c>
-      <c r="E7" s="127" t="n"/>
     </row>
     <row r="8" outlineLevel="1" ht="14.5" customFormat="1" customHeight="1" s="17">
       <c r="A8" t="inlineStr">
@@ -2025,18 +1953,17 @@
           <t>Tax Rate Assumption</t>
         </is>
       </c>
-      <c r="B8" s="131" t="n">
+      <c r="B8" s="98" t="n">
         <v>0.23</v>
       </c>
-      <c r="C8" s="133">
+      <c r="C8" s="96">
         <f>B8</f>
         <v/>
       </c>
-      <c r="D8" s="133">
+      <c r="D8" s="96">
         <f>B8</f>
         <v/>
       </c>
-      <c r="E8" s="127" t="n"/>
     </row>
     <row r="9" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A9" s="13" t="inlineStr">
@@ -2044,10 +1971,9 @@
           <t>Income Statement</t>
         </is>
       </c>
-      <c r="B9" s="131" t="n"/>
-      <c r="C9" s="134" t="n"/>
-      <c r="D9" s="131" t="n"/>
-      <c r="E9" s="127" t="n"/>
+      <c r="B9" s="96" t="n"/>
+      <c r="C9" s="99" t="n"/>
+      <c r="D9" s="96" t="n"/>
     </row>
     <row r="10" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A10" s="14" t="inlineStr">
@@ -2055,16 +1981,15 @@
           <t>Sales Growth</t>
         </is>
       </c>
-      <c r="B10" s="135" t="n"/>
-      <c r="C10" s="136">
+      <c r="B10" s="100" t="n"/>
+      <c r="C10" s="101">
         <f>IFERROR(C32/B32-1,0)</f>
         <v/>
       </c>
-      <c r="D10" s="136">
+      <c r="D10" s="101">
         <f>IFERROR(D32/C32-1,0)</f>
         <v/>
       </c>
-      <c r="E10" s="127" t="n"/>
     </row>
     <row r="11" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A11" s="14" t="inlineStr">
@@ -2072,19 +1997,18 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B11" s="136">
+      <c r="B11" s="101">
         <f>IFERROR(B34/B32,0)</f>
         <v/>
       </c>
-      <c r="C11" s="136">
+      <c r="C11" s="101">
         <f>IFERROR(C34/C32,0)</f>
         <v/>
       </c>
-      <c r="D11" s="136">
+      <c r="D11" s="101">
         <f>IFERROR(D34/D32,0)</f>
         <v/>
       </c>
-      <c r="E11" s="127" t="n"/>
     </row>
     <row r="12" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A12" s="14" t="inlineStr">
@@ -2092,19 +2016,18 @@
           <t>Distribution Expense (Percent of Sales)</t>
         </is>
       </c>
-      <c r="B12" s="136">
+      <c r="B12" s="101">
         <f>IFERROR(B35/B32,0)</f>
         <v/>
       </c>
-      <c r="C12" s="136">
+      <c r="C12" s="101">
         <f>IFERROR(C35/C32,0)</f>
         <v/>
       </c>
-      <c r="D12" s="136">
+      <c r="D12" s="101">
         <f>IFERROR(D35/D32,0)</f>
         <v/>
       </c>
-      <c r="E12" s="127" t="n"/>
     </row>
     <row r="13" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A13" s="14" t="inlineStr">
@@ -2112,19 +2035,18 @@
           <t>Marketing &amp; Admin Expense (Fixed Cost)</t>
         </is>
       </c>
-      <c r="B13" s="137">
+      <c r="B13" s="102">
         <f>IFERROR(B36,0)</f>
         <v/>
       </c>
-      <c r="C13" s="137">
+      <c r="C13" s="102">
         <f>IFERROR(C36,0)</f>
         <v/>
       </c>
-      <c r="D13" s="137">
+      <c r="D13" s="102">
         <f>IFERROR(D36,0)</f>
         <v/>
       </c>
-      <c r="E13" s="127" t="n"/>
     </row>
     <row r="14" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A14" s="14" t="inlineStr">
@@ -2132,19 +2054,18 @@
           <t>Research Expense (Percent of Sales)</t>
         </is>
       </c>
-      <c r="B14" s="136">
+      <c r="B14" s="101">
         <f>IFERROR(B37/B32,0)</f>
         <v/>
       </c>
-      <c r="C14" s="136">
+      <c r="C14" s="101">
         <f>IFERROR(C37/C32,0)</f>
         <v/>
       </c>
-      <c r="D14" s="136">
+      <c r="D14" s="101">
         <f>IFERROR(D37/D32,0)</f>
         <v/>
       </c>
-      <c r="E14" s="127" t="n"/>
     </row>
     <row r="15" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A15" s="14" t="inlineStr">
@@ -2152,19 +2073,18 @@
           <t>Depreciation (Percent of Sales)</t>
         </is>
       </c>
-      <c r="B15" s="136">
+      <c r="B15" s="101">
         <f>IFERROR(B38/B32,0)</f>
         <v/>
       </c>
-      <c r="C15" s="136">
+      <c r="C15" s="101">
         <f>IFERROR(C38/C32,0)</f>
         <v/>
       </c>
-      <c r="D15" s="136">
+      <c r="D15" s="101">
         <f>IFERROR(D38/D32,0)</f>
         <v/>
       </c>
-      <c r="E15" s="127" t="n"/>
     </row>
     <row r="16" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A16" s="14" t="inlineStr">
@@ -2172,19 +2092,18 @@
           <t>Long Term Debt Interest (Average Debt)</t>
         </is>
       </c>
-      <c r="B16" s="136">
+      <c r="B16" s="101">
         <f>IFERROR(B40/B74,0)</f>
         <v/>
       </c>
-      <c r="C16" s="136">
+      <c r="C16" s="101">
         <f>IFERROR(C40/AVERAGE(B74,C74),0)</f>
         <v/>
       </c>
-      <c r="D16" s="136">
+      <c r="D16" s="101">
         <f>IFERROR(D40/AVERAGE(C74,D74),0)</f>
         <v/>
       </c>
-      <c r="E16" s="127" t="n"/>
     </row>
     <row r="17" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A17" s="14" t="inlineStr">
@@ -2192,25 +2111,23 @@
           <t>Tax Rate (Percent of EBT)</t>
         </is>
       </c>
-      <c r="B17" s="136">
+      <c r="B17" s="101">
         <f>IFERROR(B42/B41,0)</f>
         <v/>
       </c>
-      <c r="C17" s="136">
+      <c r="C17" s="101">
         <f>IFERROR(C42/C41,0)</f>
         <v/>
       </c>
-      <c r="D17" s="136">
+      <c r="D17" s="101">
         <f>IFERROR(D42/D41,0)</f>
         <v/>
       </c>
-      <c r="E17" s="127" t="n"/>
     </row>
     <row r="18" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B18" s="131" t="n"/>
-      <c r="C18" s="131" t="n"/>
-      <c r="D18" s="131" t="n"/>
-      <c r="E18" s="127" t="n"/>
+      <c r="B18" s="96" t="n"/>
+      <c r="C18" s="96" t="n"/>
+      <c r="D18" s="96" t="n"/>
     </row>
     <row r="19" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A19" s="13" t="inlineStr">
@@ -2218,10 +2135,9 @@
           <t>Balance Sheet</t>
         </is>
       </c>
-      <c r="B19" s="131" t="n"/>
-      <c r="C19" s="131" t="n"/>
-      <c r="D19" s="131" t="n"/>
-      <c r="E19" s="127" t="n"/>
+      <c r="B19" s="96" t="n"/>
+      <c r="C19" s="96" t="n"/>
+      <c r="D19" s="96" t="n"/>
     </row>
     <row r="20" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A20" s="14" t="inlineStr">
@@ -2229,19 +2145,18 @@
           <t>Capital Asset Turnover Ratio</t>
         </is>
       </c>
-      <c r="B20" s="138">
+      <c r="B20" s="103">
         <f>IFERROR(B32/B61,0)</f>
         <v/>
       </c>
-      <c r="C20" s="138">
+      <c r="C20" s="103">
         <f>IFERROR(C32/C61,0)</f>
         <v/>
       </c>
-      <c r="D20" s="138">
+      <c r="D20" s="103">
         <f>IFERROR(D32/D61,0)</f>
         <v/>
       </c>
-      <c r="E20" s="127" t="n"/>
     </row>
     <row r="21" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A21" s="14" t="inlineStr">
@@ -2249,19 +2164,18 @@
           <t>Receivable Days (Sales Basis)</t>
         </is>
       </c>
-      <c r="B21" s="137">
+      <c r="B21" s="102">
         <f>IFERROR(B53/B32*B7,0)</f>
         <v/>
       </c>
-      <c r="C21" s="137">
+      <c r="C21" s="102">
         <f>IFERROR(C53/C32*C7,0)</f>
         <v/>
       </c>
-      <c r="D21" s="137">
+      <c r="D21" s="102">
         <f>IFERROR(D53/D32*D7,0)</f>
         <v/>
       </c>
-      <c r="E21" s="127" t="n"/>
     </row>
     <row r="22" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A22" s="14" t="inlineStr">
@@ -2269,19 +2183,18 @@
           <t>Inventory Days (COGS Basis)</t>
         </is>
       </c>
-      <c r="B22" s="137">
+      <c r="B22" s="102">
         <f>IFERROR(B54/B33*B7,0)</f>
         <v/>
       </c>
-      <c r="C22" s="137">
+      <c r="C22" s="102">
         <f>IFERROR(C54/C33*C7,0)</f>
         <v/>
       </c>
-      <c r="D22" s="137">
+      <c r="D22" s="102">
         <f>IFERROR(D54/D33*D7,0)</f>
         <v/>
       </c>
-      <c r="E22" s="127" t="n"/>
     </row>
     <row r="23" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A23" s="14" t="inlineStr">
@@ -2289,19 +2202,18 @@
           <t>Payable Days (COGS Basis)</t>
         </is>
       </c>
-      <c r="B23" s="137">
+      <c r="B23" s="102">
         <f>IFERROR(B66/B33*$B$7,0)</f>
         <v/>
       </c>
-      <c r="C23" s="137">
+      <c r="C23" s="102">
         <f>IFERROR(C66/C33*$B$7,0)</f>
         <v/>
       </c>
-      <c r="D23" s="137">
+      <c r="D23" s="102">
         <f>IFERROR(D66/D33*$B$7,0)</f>
         <v/>
       </c>
-      <c r="E23" s="127" t="n"/>
     </row>
     <row r="24" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A24" s="14" t="inlineStr">
@@ -2309,19 +2221,18 @@
           <t>Income Tax Payable</t>
         </is>
       </c>
-      <c r="B24" s="136">
+      <c r="B24" s="101">
         <f>IFERROR(B71/B42*$B$7,0)</f>
         <v/>
       </c>
-      <c r="C24" s="136">
+      <c r="C24" s="101">
         <f>IFERROR(C71/C42*$B$7,0)</f>
         <v/>
       </c>
-      <c r="D24" s="136">
+      <c r="D24" s="101">
         <f>IFERROR(D71/D42*$B$7,0)</f>
         <v/>
       </c>
-      <c r="E24" s="127" t="n"/>
     </row>
     <row r="25" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A25" s="14" t="inlineStr">
@@ -2329,19 +2240,18 @@
           <t>Long Term Debt</t>
         </is>
       </c>
-      <c r="B25" s="137">
+      <c r="B25" s="102">
         <f>IFERROR(B74,0)</f>
         <v/>
       </c>
-      <c r="C25" s="137">
+      <c r="C25" s="102">
         <f>IFERROR(C74,0)</f>
         <v/>
       </c>
-      <c r="D25" s="137">
+      <c r="D25" s="102">
         <f>IFERROR(D74,0)</f>
         <v/>
       </c>
-      <c r="E25" s="127" t="n"/>
     </row>
     <row r="26" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A26" s="14" t="inlineStr">
@@ -2349,19 +2259,18 @@
           <t>Common Share Capital</t>
         </is>
       </c>
-      <c r="B26" s="137">
+      <c r="B26" s="102">
         <f>IFERROR(B76,0)</f>
         <v/>
       </c>
-      <c r="C26" s="137">
+      <c r="C26" s="102">
         <f>IFERROR(C76,0)</f>
         <v/>
       </c>
-      <c r="D26" s="137">
+      <c r="D26" s="102">
         <f>IFERROR(D76,0)</f>
         <v/>
       </c>
-      <c r="E26" s="127" t="n"/>
     </row>
     <row r="27" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A27" s="14" t="inlineStr">
@@ -2369,31 +2278,28 @@
           <t xml:space="preserve">Dividend Payout Ratio </t>
         </is>
       </c>
-      <c r="B27" s="136">
+      <c r="B27" s="101">
         <f>IFERROR(B45/B43,0)</f>
         <v/>
       </c>
-      <c r="C27" s="136">
+      <c r="C27" s="101">
         <f>IFERROR(C45/C43,0)</f>
         <v/>
       </c>
-      <c r="D27" s="136">
+      <c r="D27" s="101">
         <f>IFERROR(D45/D43,0)</f>
         <v/>
       </c>
-      <c r="E27" s="127" t="n"/>
     </row>
     <row r="28" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B28" s="139" t="n"/>
-      <c r="C28" s="139" t="n"/>
-      <c r="D28" s="139" t="n"/>
-      <c r="E28" s="127" t="n"/>
+      <c r="B28" s="104" t="n"/>
+      <c r="C28" s="104" t="n"/>
+      <c r="D28" s="104" t="n"/>
     </row>
     <row r="29" ht="14.5" customHeight="1">
-      <c r="B29" s="131" t="n"/>
-      <c r="C29" s="131" t="n"/>
-      <c r="D29" s="131" t="n"/>
-      <c r="E29" s="127" t="n"/>
+      <c r="B29" s="96" t="n"/>
+      <c r="C29" s="96" t="n"/>
+      <c r="D29" s="96" t="n"/>
     </row>
     <row r="30" ht="19.75" customFormat="1" customHeight="1" s="12">
       <c r="A30" s="10" t="inlineStr">
@@ -2401,17 +2307,15 @@
           <t>Income Statement</t>
         </is>
       </c>
-      <c r="B30" s="130" t="n"/>
-      <c r="C30" s="130" t="n"/>
-      <c r="D30" s="130" t="n"/>
-      <c r="E30" s="127" t="n"/>
+      <c r="B30" s="95" t="n"/>
+      <c r="C30" s="95" t="n"/>
+      <c r="D30" s="95" t="n"/>
     </row>
     <row r="31" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A31" s="13" t="n"/>
-      <c r="B31" s="131" t="n"/>
-      <c r="C31" s="131" t="n"/>
-      <c r="D31" s="131" t="n"/>
-      <c r="E31" s="127" t="n"/>
+      <c r="B31" s="96" t="n"/>
+      <c r="C31" s="96" t="n"/>
+      <c r="D31" s="96" t="n"/>
     </row>
     <row r="32" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A32" s="13" t="inlineStr">
@@ -2419,16 +2323,15 @@
           <t>Revenues</t>
         </is>
       </c>
-      <c r="B32" s="132" t="n">
+      <c r="B32" s="105" t="n">
         <v>520</v>
       </c>
-      <c r="C32" s="132" t="n">
+      <c r="C32" s="105" t="n">
         <v>590</v>
       </c>
-      <c r="D32" s="132" t="n">
+      <c r="D32" s="105" t="n">
         <v>650</v>
       </c>
-      <c r="E32" s="127" t="n"/>
     </row>
     <row r="33" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A33" s="14" t="inlineStr">
@@ -2436,16 +2339,15 @@
           <t>Cost of Goods Sold</t>
         </is>
       </c>
-      <c r="B33" s="140" t="n">
+      <c r="B33" s="106" t="n">
         <v>265</v>
       </c>
-      <c r="C33" s="140" t="n">
+      <c r="C33" s="106" t="n">
         <v>300</v>
       </c>
-      <c r="D33" s="140" t="n">
+      <c r="D33" s="106" t="n">
         <v>330</v>
       </c>
-      <c r="E33" s="127" t="n"/>
     </row>
     <row r="34" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A34" s="27" t="inlineStr">
@@ -2453,19 +2355,18 @@
           <t>Gross Profit</t>
         </is>
       </c>
-      <c r="B34" s="141">
+      <c r="B34" s="107">
         <f>B32-B33</f>
         <v/>
       </c>
-      <c r="C34" s="141">
+      <c r="C34" s="107">
         <f>C32-C33</f>
         <v/>
       </c>
-      <c r="D34" s="141">
+      <c r="D34" s="107">
         <f>D32-D33</f>
         <v/>
       </c>
-      <c r="E34" s="127" t="n"/>
     </row>
     <row r="35" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A35" s="14" t="inlineStr">
@@ -2473,16 +2374,15 @@
           <t>Distribution Expenses</t>
         </is>
       </c>
-      <c r="B35" s="132" t="n">
+      <c r="B35" s="105" t="n">
         <v>70</v>
       </c>
-      <c r="C35" s="132" t="n">
+      <c r="C35" s="105" t="n">
         <v>78</v>
       </c>
-      <c r="D35" s="132" t="n">
+      <c r="D35" s="105" t="n">
         <v>82</v>
       </c>
-      <c r="E35" s="127" t="n"/>
     </row>
     <row r="36" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A36" s="14" t="inlineStr">
@@ -2490,16 +2390,15 @@
           <t>Marketing and Administration</t>
         </is>
       </c>
-      <c r="B36" s="132" t="n">
+      <c r="B36" s="105" t="n">
         <v>120</v>
       </c>
-      <c r="C36" s="132" t="n">
+      <c r="C36" s="105" t="n">
         <v>130</v>
       </c>
-      <c r="D36" s="132" t="n">
+      <c r="D36" s="105" t="n">
         <v>140</v>
       </c>
-      <c r="E36" s="127" t="n"/>
     </row>
     <row r="37" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A37" s="14" t="inlineStr">
@@ -2507,16 +2406,15 @@
           <t>Research and Development</t>
         </is>
       </c>
-      <c r="B37" s="132" t="n">
+      <c r="B37" s="105" t="n">
         <v>15</v>
       </c>
-      <c r="C37" s="132" t="n">
+      <c r="C37" s="105" t="n">
         <v>16</v>
       </c>
-      <c r="D37" s="132" t="n">
+      <c r="D37" s="105" t="n">
         <v>18</v>
       </c>
-      <c r="E37" s="127" t="n"/>
     </row>
     <row r="38" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A38" s="14" t="inlineStr">
@@ -2524,16 +2422,15 @@
           <t>Depreciation</t>
         </is>
       </c>
-      <c r="B38" s="132" t="n">
+      <c r="B38" s="105" t="n">
         <v>14</v>
       </c>
-      <c r="C38" s="132" t="n">
+      <c r="C38" s="105" t="n">
         <v>15</v>
       </c>
-      <c r="D38" s="132" t="n">
+      <c r="D38" s="105" t="n">
         <v>15</v>
       </c>
-      <c r="E38" s="127" t="n"/>
     </row>
     <row r="39" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A39" s="27" t="inlineStr">
@@ -2541,19 +2438,19 @@
           <t>EBIT (Operating Profit)</t>
         </is>
       </c>
-      <c r="B39" s="142">
+      <c r="B39" s="108">
         <f>B34-SUM(B35:B38)</f>
         <v/>
       </c>
-      <c r="C39" s="142">
+      <c r="C39" s="108">
         <f>C34-SUM(C35:C38)</f>
         <v/>
       </c>
-      <c r="D39" s="142">
+      <c r="D39" s="108">
         <f>D34-SUM(D35:D38)</f>
         <v/>
       </c>
-      <c r="E39" s="143" t="n"/>
+      <c r="E39" s="17" t="n"/>
     </row>
     <row r="40" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A40" s="14" t="inlineStr">
@@ -2561,16 +2458,16 @@
           <t>Interest</t>
         </is>
       </c>
-      <c r="B40" s="132" t="n">
+      <c r="B40" s="105" t="n">
         <v>6</v>
       </c>
-      <c r="C40" s="132" t="n">
+      <c r="C40" s="105" t="n">
         <v>6.5</v>
       </c>
-      <c r="D40" s="132" t="n">
+      <c r="D40" s="105" t="n">
         <v>7</v>
       </c>
-      <c r="E40" s="143" t="n"/>
+      <c r="E40" s="17" t="n"/>
     </row>
     <row r="41" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A41" s="30" t="inlineStr">
@@ -2578,19 +2475,19 @@
           <t>Income Before Taxes</t>
         </is>
       </c>
-      <c r="B41" s="144">
+      <c r="B41" s="109">
         <f>B39-B40</f>
         <v/>
       </c>
-      <c r="C41" s="144">
+      <c r="C41" s="109">
         <f>C39-C40</f>
         <v/>
       </c>
-      <c r="D41" s="144">
+      <c r="D41" s="109">
         <f>D39-D40</f>
         <v/>
       </c>
-      <c r="E41" s="143" t="n"/>
+      <c r="E41" s="17" t="n"/>
     </row>
     <row r="42" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A42" s="14" t="inlineStr">
@@ -2598,19 +2495,19 @@
           <t>Taxes</t>
         </is>
       </c>
-      <c r="B42" s="145">
+      <c r="B42" s="97">
         <f>IF(B41&gt;0,B41*$B$8,0)</f>
         <v/>
       </c>
-      <c r="C42" s="145">
+      <c r="C42" s="97">
         <f>IF(C41&gt;0,C41*$B$8,0)</f>
         <v/>
       </c>
-      <c r="D42" s="145">
+      <c r="D42" s="97">
         <f>IF(D41&gt;0,D41*$B$8,0)</f>
         <v/>
       </c>
-      <c r="E42" s="143" t="n"/>
+      <c r="E42" s="17" t="n"/>
     </row>
     <row r="43" outlineLevel="1" ht="14.5" customHeight="1" thickBot="1">
       <c r="A43" s="32" t="inlineStr">
@@ -2618,26 +2515,24 @@
           <t>Net Income</t>
         </is>
       </c>
-      <c r="B43" s="146">
+      <c r="B43" s="110">
         <f>B41-B42</f>
         <v/>
       </c>
-      <c r="C43" s="146">
+      <c r="C43" s="110">
         <f>C41-C42</f>
         <v/>
       </c>
-      <c r="D43" s="146">
+      <c r="D43" s="110">
         <f>D41-D42</f>
         <v/>
       </c>
-      <c r="E43" s="127" t="n"/>
     </row>
     <row r="44" outlineLevel="1" ht="14.5" customHeight="1" thickTop="1">
       <c r="A44" s="13" t="n"/>
-      <c r="B44" s="147" t="n"/>
-      <c r="C44" s="147" t="n"/>
-      <c r="D44" s="147" t="n"/>
-      <c r="E44" s="127" t="n"/>
+      <c r="B44" s="107" t="n"/>
+      <c r="C44" s="107" t="n"/>
+      <c r="D44" s="107" t="n"/>
     </row>
     <row r="45" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A45" s="14" t="inlineStr">
@@ -2645,28 +2540,25 @@
           <t>Common Dividends</t>
         </is>
       </c>
-      <c r="B45" s="132" t="n">
+      <c r="B45" s="105" t="n">
         <v>5</v>
       </c>
-      <c r="C45" s="132" t="n">
+      <c r="C45" s="105" t="n">
         <v>8</v>
       </c>
-      <c r="D45" s="132" t="n">
+      <c r="D45" s="105" t="n">
         <v>10</v>
       </c>
-      <c r="E45" s="127" t="n"/>
     </row>
     <row r="46" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B46" s="132" t="n"/>
-      <c r="C46" s="132" t="n"/>
-      <c r="D46" s="132" t="n"/>
-      <c r="E46" s="127" t="n"/>
+      <c r="B46" s="97" t="n"/>
+      <c r="C46" s="97" t="n"/>
+      <c r="D46" s="97" t="n"/>
     </row>
     <row r="47" ht="14.5" customHeight="1">
-      <c r="B47" s="131" t="n"/>
-      <c r="C47" s="131" t="n"/>
-      <c r="D47" s="131" t="n"/>
-      <c r="E47" s="127" t="n"/>
+      <c r="B47" s="96" t="n"/>
+      <c r="C47" s="96" t="n"/>
+      <c r="D47" s="96" t="n"/>
     </row>
     <row r="48" ht="19.75" customFormat="1" customHeight="1" s="12">
       <c r="A48" s="10" t="inlineStr">
@@ -2674,17 +2566,15 @@
           <t>Balance Sheet</t>
         </is>
       </c>
-      <c r="B48" s="130" t="n"/>
-      <c r="C48" s="130" t="n"/>
-      <c r="D48" s="130" t="n"/>
-      <c r="E48" s="127" t="n"/>
+      <c r="B48" s="95" t="n"/>
+      <c r="C48" s="95" t="n"/>
+      <c r="D48" s="95" t="n"/>
     </row>
     <row r="49" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A49" s="13" t="n"/>
-      <c r="B49" s="131" t="n"/>
-      <c r="C49" s="131" t="n"/>
-      <c r="D49" s="131" t="n"/>
-      <c r="E49" s="127" t="n"/>
+      <c r="B49" s="96" t="n"/>
+      <c r="C49" s="96" t="n"/>
+      <c r="D49" s="96" t="n"/>
     </row>
     <row r="50" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A50" s="13" t="inlineStr">
@@ -2692,10 +2582,9 @@
           <t>ASSETS</t>
         </is>
       </c>
-      <c r="B50" s="131" t="n"/>
-      <c r="C50" s="131" t="n"/>
-      <c r="D50" s="131" t="n"/>
-      <c r="E50" s="127" t="n"/>
+      <c r="B50" s="96" t="n"/>
+      <c r="C50" s="96" t="n"/>
+      <c r="D50" s="96" t="n"/>
     </row>
     <row r="51" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A51" s="13" t="inlineStr">
@@ -2703,10 +2592,9 @@
           <t>Current Assets:</t>
         </is>
       </c>
-      <c r="B51" s="131" t="n"/>
-      <c r="C51" s="131" t="n"/>
-      <c r="D51" s="131" t="n"/>
-      <c r="E51" s="127" t="n"/>
+      <c r="B51" s="96" t="n"/>
+      <c r="C51" s="96" t="n"/>
+      <c r="D51" s="96" t="n"/>
     </row>
     <row r="52" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A52" s="14" t="inlineStr">
@@ -2714,16 +2602,15 @@
           <t>Cash</t>
         </is>
       </c>
-      <c r="B52" s="132" t="n">
+      <c r="B52" s="105" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="C52" s="132" t="n">
+      <c r="C52" s="105" t="n">
         <v>96.86500000000001</v>
       </c>
-      <c r="D52" s="132" t="n">
+      <c r="D52" s="105" t="n">
         <v>114.525</v>
       </c>
-      <c r="E52" s="127" t="n"/>
     </row>
     <row r="53" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A53" s="14" t="inlineStr">
@@ -2731,16 +2618,15 @@
           <t>Trade and Other Receivables</t>
         </is>
       </c>
-      <c r="B53" s="132" t="n">
+      <c r="B53" s="105" t="n">
         <v>55</v>
       </c>
-      <c r="C53" s="132" t="n">
+      <c r="C53" s="105" t="n">
         <v>62</v>
       </c>
-      <c r="D53" s="132" t="n">
+      <c r="D53" s="105" t="n">
         <v>68</v>
       </c>
-      <c r="E53" s="127" t="n"/>
     </row>
     <row r="54" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A54" s="14" t="inlineStr">
@@ -2748,16 +2634,15 @@
           <t>Inventories</t>
         </is>
       </c>
-      <c r="B54" s="132" t="n">
+      <c r="B54" s="105" t="n">
         <v>30</v>
       </c>
-      <c r="C54" s="132" t="n">
+      <c r="C54" s="105" t="n">
         <v>34</v>
       </c>
-      <c r="D54" s="132" t="n">
+      <c r="D54" s="105" t="n">
         <v>38</v>
       </c>
-      <c r="E54" s="127" t="n"/>
     </row>
     <row r="55" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A55" t="inlineStr">
@@ -2765,16 +2650,15 @@
           <t>Prepaid Expenses</t>
         </is>
       </c>
-      <c r="B55" s="131" t="n">
+      <c r="B55" s="98" t="n">
         <v>8</v>
       </c>
-      <c r="C55" s="131" t="n">
+      <c r="C55" s="98" t="n">
         <v>9</v>
       </c>
-      <c r="D55" s="131" t="n">
+      <c r="D55" s="98" t="n">
         <v>10</v>
       </c>
-      <c r="E55" s="127" t="n"/>
     </row>
     <row r="56" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A56" t="inlineStr">
@@ -2782,16 +2666,15 @@
           <t>Other Current Assets</t>
         </is>
       </c>
-      <c r="B56" s="131" t="n">
+      <c r="B56" s="98" t="n">
         <v>5</v>
       </c>
-      <c r="C56" s="131" t="n">
+      <c r="C56" s="98" t="n">
         <v>6</v>
       </c>
-      <c r="D56" s="131" t="n">
+      <c r="D56" s="98" t="n">
         <v>7</v>
       </c>
-      <c r="E56" s="127" t="n"/>
     </row>
     <row r="57" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A57" s="30" t="inlineStr">
@@ -2799,19 +2682,18 @@
           <t>Total Current Assets</t>
         </is>
       </c>
-      <c r="B57" s="142">
+      <c r="B57" s="108">
         <f>SUM(B52:B56)</f>
         <v/>
       </c>
-      <c r="C57" s="142">
+      <c r="C57" s="108">
         <f>SUM(C52:C56)</f>
         <v/>
       </c>
-      <c r="D57" s="142">
+      <c r="D57" s="108">
         <f>SUM(D52:D56)</f>
         <v/>
       </c>
-      <c r="E57" s="127" t="n"/>
     </row>
     <row r="58" outlineLevel="1" ht="14.5" customHeight="1" thickBot="1">
       <c r="A58" s="13" t="inlineStr">
@@ -2819,10 +2701,9 @@
           <t>Non-Current Assets:</t>
         </is>
       </c>
-      <c r="B58" s="147" t="n"/>
-      <c r="C58" s="147" t="n"/>
-      <c r="D58" s="147" t="n"/>
-      <c r="E58" s="127" t="n"/>
+      <c r="B58" s="107" t="n"/>
+      <c r="C58" s="107" t="n"/>
+      <c r="D58" s="107" t="n"/>
     </row>
     <row r="59" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A59" s="14" t="inlineStr">
@@ -2830,16 +2711,15 @@
           <t>Property Plant and Equipment - Gross</t>
         </is>
       </c>
-      <c r="B59" s="132" t="n">
+      <c r="B59" s="105" t="n">
         <v>160</v>
       </c>
-      <c r="C59" s="132" t="n">
+      <c r="C59" s="105" t="n">
         <v>190</v>
       </c>
-      <c r="D59" s="132" t="n">
+      <c r="D59" s="105" t="n">
         <v>215</v>
       </c>
-      <c r="E59" s="127" t="n"/>
     </row>
     <row r="60" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A60" t="inlineStr">
@@ -2847,16 +2727,15 @@
           <t>Less: Accumulated Depreciation</t>
         </is>
       </c>
-      <c r="B60" s="131" t="n">
+      <c r="B60" s="98" t="n">
         <v>40</v>
       </c>
-      <c r="C60" s="131" t="n">
+      <c r="C60" s="98" t="n">
         <v>55</v>
       </c>
-      <c r="D60" s="131" t="n">
+      <c r="D60" s="98" t="n">
         <v>70</v>
       </c>
-      <c r="E60" s="127" t="n"/>
     </row>
     <row r="61" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A61" t="inlineStr">
@@ -2864,19 +2743,18 @@
           <t>Property Plant and Equipment - Net</t>
         </is>
       </c>
-      <c r="B61" s="133">
+      <c r="B61" s="96">
         <f>B59-B60</f>
         <v/>
       </c>
-      <c r="C61" s="133">
+      <c r="C61" s="96">
         <f>C59-C60</f>
         <v/>
       </c>
-      <c r="D61" s="133">
+      <c r="D61" s="96">
         <f>D59-D60</f>
         <v/>
       </c>
-      <c r="E61" s="127" t="n"/>
     </row>
     <row r="62" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A62" s="35" t="inlineStr">
@@ -2884,25 +2762,23 @@
           <t>TOTAL ASSETS</t>
         </is>
       </c>
-      <c r="B62" s="148">
+      <c r="B62" s="111">
         <f>B57+B61</f>
         <v/>
       </c>
-      <c r="C62" s="148">
+      <c r="C62" s="111">
         <f>C57+C61</f>
         <v/>
       </c>
-      <c r="D62" s="148">
+      <c r="D62" s="111">
         <f>D57+D61</f>
         <v/>
       </c>
-      <c r="E62" s="127" t="n"/>
     </row>
     <row r="63" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B63" s="147" t="n"/>
-      <c r="C63" s="147" t="n"/>
-      <c r="D63" s="147" t="n"/>
-      <c r="E63" s="127" t="n"/>
+      <c r="B63" s="107" t="n"/>
+      <c r="C63" s="107" t="n"/>
+      <c r="D63" s="107" t="n"/>
     </row>
     <row r="64" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A64" s="13" t="inlineStr">
@@ -2910,10 +2786,9 @@
           <t>LIABILITIES AND SHAREHOLDERS' EQUITY</t>
         </is>
       </c>
-      <c r="B64" s="147" t="n"/>
-      <c r="C64" s="147" t="n"/>
-      <c r="D64" s="147" t="n"/>
-      <c r="E64" s="127" t="n"/>
+      <c r="B64" s="107" t="n"/>
+      <c r="C64" s="107" t="n"/>
+      <c r="D64" s="107" t="n"/>
     </row>
     <row r="65" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A65" s="13" t="inlineStr">
@@ -2921,10 +2796,9 @@
           <t>Current Liabilities:</t>
         </is>
       </c>
-      <c r="B65" s="147" t="n"/>
-      <c r="C65" s="147" t="n"/>
-      <c r="D65" s="147" t="n"/>
-      <c r="E65" s="127" t="n"/>
+      <c r="B65" s="107" t="n"/>
+      <c r="C65" s="107" t="n"/>
+      <c r="D65" s="107" t="n"/>
     </row>
     <row r="66" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A66" s="14" t="inlineStr">
@@ -2932,16 +2806,15 @@
           <t>Accounts Payable</t>
         </is>
       </c>
-      <c r="B66" s="132" t="n">
+      <c r="B66" s="105" t="n">
         <v>45</v>
       </c>
-      <c r="C66" s="132" t="n">
+      <c r="C66" s="105" t="n">
         <v>52</v>
       </c>
-      <c r="D66" s="132" t="n">
+      <c r="D66" s="105" t="n">
         <v>58</v>
       </c>
-      <c r="E66" s="127" t="n"/>
     </row>
     <row r="67" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A67" t="inlineStr">
@@ -2949,16 +2822,15 @@
           <t>Accrued Payroll</t>
         </is>
       </c>
-      <c r="B67" s="131" t="n">
+      <c r="B67" s="98" t="n">
         <v>12</v>
       </c>
-      <c r="C67" s="131" t="n">
+      <c r="C67" s="98" t="n">
         <v>13</v>
       </c>
-      <c r="D67" s="131" t="n">
+      <c r="D67" s="98" t="n">
         <v>14</v>
       </c>
-      <c r="E67" s="127" t="n"/>
     </row>
     <row r="68" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A68" t="inlineStr">
@@ -2966,16 +2838,15 @@
           <t>Deferred Revenue</t>
         </is>
       </c>
-      <c r="B68" s="131" t="n">
+      <c r="B68" s="98" t="n">
         <v>10</v>
       </c>
-      <c r="C68" s="131" t="n">
+      <c r="C68" s="98" t="n">
         <v>11</v>
       </c>
-      <c r="D68" s="131" t="n">
+      <c r="D68" s="98" t="n">
         <v>12</v>
       </c>
-      <c r="E68" s="127" t="n"/>
     </row>
     <row r="69" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A69" t="inlineStr">
@@ -2983,16 +2854,15 @@
           <t>Interest Payable</t>
         </is>
       </c>
-      <c r="B69" s="131" t="n">
+      <c r="B69" s="98" t="n">
         <v>2</v>
       </c>
-      <c r="C69" s="131" t="n">
+      <c r="C69" s="98" t="n">
         <v>2.5</v>
       </c>
-      <c r="D69" s="131" t="n">
+      <c r="D69" s="98" t="n">
         <v>3</v>
       </c>
-      <c r="E69" s="127" t="n"/>
     </row>
     <row r="70" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A70" t="inlineStr">
@@ -3000,16 +2870,15 @@
           <t>Other Current Liabilities</t>
         </is>
       </c>
-      <c r="B70" s="131" t="n">
+      <c r="B70" s="98" t="n">
         <v>5</v>
       </c>
-      <c r="C70" s="131" t="n">
+      <c r="C70" s="98" t="n">
         <v>6</v>
       </c>
-      <c r="D70" s="131" t="n">
+      <c r="D70" s="98" t="n">
         <v>6.5</v>
       </c>
-      <c r="E70" s="127" t="n"/>
     </row>
     <row r="71" outlineLevel="1" ht="14.5" customHeight="1" thickBot="1">
       <c r="A71" s="14" t="inlineStr">
@@ -3017,16 +2886,15 @@
           <t>Income Taxes Payable</t>
         </is>
       </c>
-      <c r="B71" s="132" t="n">
+      <c r="B71" s="105" t="n">
         <v>3</v>
       </c>
-      <c r="C71" s="132" t="n">
+      <c r="C71" s="105" t="n">
         <v>4</v>
       </c>
-      <c r="D71" s="132" t="n">
+      <c r="D71" s="105" t="n">
         <v>5</v>
       </c>
-      <c r="E71" s="127" t="n"/>
     </row>
     <row r="72" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A72" s="30" t="inlineStr">
@@ -3034,19 +2902,18 @@
           <t>Total Current Liabilities:</t>
         </is>
       </c>
-      <c r="B72" s="142">
+      <c r="B72" s="108">
         <f>SUM(B66:B71)</f>
         <v/>
       </c>
-      <c r="C72" s="142">
+      <c r="C72" s="108">
         <f>SUM(C66:C71)</f>
         <v/>
       </c>
-      <c r="D72" s="142">
+      <c r="D72" s="108">
         <f>SUM(D66:D71)</f>
         <v/>
       </c>
-      <c r="E72" s="127" t="n"/>
     </row>
     <row r="73" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A73" s="13" t="inlineStr">
@@ -3054,10 +2921,9 @@
           <t>Non-Current Liabilities:</t>
         </is>
       </c>
-      <c r="B73" s="147" t="n"/>
-      <c r="C73" s="147" t="n"/>
-      <c r="D73" s="147" t="n"/>
-      <c r="E73" s="127" t="n"/>
+      <c r="B73" s="107" t="n"/>
+      <c r="C73" s="107" t="n"/>
+      <c r="D73" s="107" t="n"/>
     </row>
     <row r="74" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A74" s="14" t="inlineStr">
@@ -3065,16 +2931,15 @@
           <t>Long-Term Debt</t>
         </is>
       </c>
-      <c r="B74" s="132" t="n">
+      <c r="B74" s="105" t="n">
         <v>60</v>
       </c>
-      <c r="C74" s="132" t="n">
+      <c r="C74" s="105" t="n">
         <v>70</v>
       </c>
-      <c r="D74" s="132" t="n">
+      <c r="D74" s="105" t="n">
         <v>65</v>
       </c>
-      <c r="E74" s="127" t="n"/>
     </row>
     <row r="75" ht="14.5" customHeight="1">
       <c r="A75" s="13" t="inlineStr">
@@ -3082,10 +2947,9 @@
           <t>Shareholder's Equity:</t>
         </is>
       </c>
-      <c r="B75" s="147" t="n"/>
-      <c r="C75" s="147" t="n"/>
-      <c r="D75" s="147" t="n"/>
-      <c r="E75" s="127" t="n"/>
+      <c r="B75" s="107" t="n"/>
+      <c r="C75" s="107" t="n"/>
+      <c r="D75" s="107" t="n"/>
     </row>
     <row r="76" ht="19.75" customFormat="1" customHeight="1" s="12">
       <c r="A76" s="14" t="inlineStr">
@@ -3093,16 +2957,15 @@
           <t>Common Stock and Additional Paid-In Capital</t>
         </is>
       </c>
-      <c r="B76" s="132" t="n">
+      <c r="B76" s="105" t="n">
         <v>80</v>
       </c>
-      <c r="C76" s="132" t="n">
+      <c r="C76" s="105" t="n">
         <v>85</v>
       </c>
-      <c r="D76" s="132" t="n">
+      <c r="D76" s="105" t="n">
         <v>85</v>
       </c>
-      <c r="E76" s="127" t="n"/>
     </row>
     <row r="77" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A77" s="14" t="inlineStr">
@@ -3110,18 +2973,17 @@
           <t>Retained Earnings</t>
         </is>
       </c>
-      <c r="B77" s="132" t="n">
+      <c r="B77" s="105" t="n">
         <v>73.10000000000002</v>
       </c>
-      <c r="C77" s="145">
+      <c r="C77" s="97">
         <f>B77+C43-C45</f>
         <v/>
       </c>
-      <c r="D77" s="145">
+      <c r="D77" s="97">
         <f>C77+D43-D45</f>
         <v/>
       </c>
-      <c r="E77" s="127" t="n"/>
     </row>
     <row r="78" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A78" s="27" t="inlineStr">
@@ -3129,19 +2991,18 @@
           <t>Total Shareholders' Equity</t>
         </is>
       </c>
-      <c r="B78" s="149">
+      <c r="B78" s="112">
         <f>SUM(B76,B77)</f>
         <v/>
       </c>
-      <c r="C78" s="149">
+      <c r="C78" s="112">
         <f>SUM(C76,C77)</f>
         <v/>
       </c>
-      <c r="D78" s="149">
+      <c r="D78" s="112">
         <f>SUM(D76,D77)</f>
         <v/>
       </c>
-      <c r="E78" s="127" t="n"/>
     </row>
     <row r="79" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A79" s="35" t="inlineStr">
@@ -3149,25 +3010,23 @@
           <t>TOTAL LIABILITIES AND SHAREHOLDERS' EQUITY</t>
         </is>
       </c>
-      <c r="B79" s="148">
+      <c r="B79" s="111">
         <f>B78+B74+B72</f>
         <v/>
       </c>
-      <c r="C79" s="148">
+      <c r="C79" s="111">
         <f>C78+C74+C72</f>
         <v/>
       </c>
-      <c r="D79" s="148">
+      <c r="D79" s="111">
         <f>D78+D74+D72</f>
         <v/>
       </c>
-      <c r="E79" s="127" t="n"/>
     </row>
     <row r="80" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B80" s="147" t="n"/>
-      <c r="C80" s="147" t="n"/>
-      <c r="D80" s="147" t="n"/>
-      <c r="E80" s="127" t="n"/>
+      <c r="B80" s="107" t="n"/>
+      <c r="C80" s="107" t="n"/>
+      <c r="D80" s="107" t="n"/>
     </row>
     <row r="81" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A81" s="39" t="inlineStr">
@@ -3175,31 +3034,28 @@
           <t>Check</t>
         </is>
       </c>
-      <c r="B81" s="150">
+      <c r="B81" s="113">
         <f>IFERROR(IF(ABS(B52-B114)&lt;0.01,0,B52-B114),0)</f>
         <v/>
       </c>
-      <c r="C81" s="150">
+      <c r="C81" s="113">
         <f>IFERROR(IF(ABS(C52-C114)&lt;0.01,0,C52-C114),0)</f>
         <v/>
       </c>
-      <c r="D81" s="150">
+      <c r="D81" s="113">
         <f>IFERROR(IF(ABS(D52-D114)&lt;0.01,0,D52-D114),0)</f>
         <v/>
       </c>
-      <c r="E81" s="127" t="n"/>
     </row>
     <row r="82" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B82" s="131" t="n"/>
-      <c r="C82" s="131" t="n"/>
-      <c r="D82" s="131" t="n"/>
-      <c r="E82" s="127" t="n"/>
+      <c r="B82" s="96" t="n"/>
+      <c r="C82" s="96" t="n"/>
+      <c r="D82" s="96" t="n"/>
     </row>
     <row r="83" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B83" s="131" t="n"/>
-      <c r="C83" s="131" t="n"/>
-      <c r="D83" s="131" t="n"/>
-      <c r="E83" s="127" t="n"/>
+      <c r="B83" s="96" t="n"/>
+      <c r="C83" s="96" t="n"/>
+      <c r="D83" s="96" t="n"/>
     </row>
     <row r="84" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A84" s="10" t="inlineStr">
@@ -3207,17 +3063,15 @@
           <t>Cash Flow Statement</t>
         </is>
       </c>
-      <c r="B84" s="151" t="n"/>
-      <c r="C84" s="151" t="n"/>
-      <c r="D84" s="151" t="n"/>
-      <c r="E84" s="127" t="n"/>
+      <c r="B84" s="114" t="n"/>
+      <c r="C84" s="114" t="n"/>
+      <c r="D84" s="114" t="n"/>
     </row>
     <row r="85" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A85" s="13" t="n"/>
-      <c r="B85" s="132" t="n"/>
-      <c r="C85" s="132" t="n"/>
-      <c r="D85" s="132" t="n"/>
-      <c r="E85" s="127" t="n"/>
+      <c r="B85" s="97" t="n"/>
+      <c r="C85" s="97" t="n"/>
+      <c r="D85" s="97" t="n"/>
     </row>
     <row r="86" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A86" s="13" t="inlineStr">
@@ -3225,10 +3079,9 @@
           <t>Cash Flows from Operating Activities:</t>
         </is>
       </c>
-      <c r="B86" s="152" t="n"/>
-      <c r="C86" s="152" t="n"/>
-      <c r="D86" s="152" t="n"/>
-      <c r="E86" s="127" t="n"/>
+      <c r="B86" s="115" t="n"/>
+      <c r="C86" s="115" t="n"/>
+      <c r="D86" s="115" t="n"/>
     </row>
     <row r="87" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A87" s="14" t="inlineStr">
@@ -3236,19 +3089,18 @@
           <t>Net Income</t>
         </is>
       </c>
-      <c r="B87" s="145">
+      <c r="B87" s="97">
         <f>B43</f>
         <v/>
       </c>
-      <c r="C87" s="145">
+      <c r="C87" s="97">
         <f>C43</f>
         <v/>
       </c>
-      <c r="D87" s="145">
+      <c r="D87" s="97">
         <f>D43</f>
         <v/>
       </c>
-      <c r="E87" s="127" t="n"/>
     </row>
     <row r="88" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A88" s="14" t="inlineStr">
@@ -3256,19 +3108,18 @@
           <t>Depreciation</t>
         </is>
       </c>
-      <c r="B88" s="145">
+      <c r="B88" s="97">
         <f>B38</f>
         <v/>
       </c>
-      <c r="C88" s="145">
+      <c r="C88" s="97">
         <f>C38</f>
         <v/>
       </c>
-      <c r="D88" s="145">
+      <c r="D88" s="97">
         <f>D38</f>
         <v/>
       </c>
-      <c r="E88" s="127" t="n"/>
     </row>
     <row r="89" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A89" s="14" t="inlineStr">
@@ -3276,10 +3127,9 @@
           <t>Changes in Operating Assets and Liabilities:</t>
         </is>
       </c>
-      <c r="B89" s="132" t="n"/>
-      <c r="C89" s="132" t="n"/>
-      <c r="D89" s="132" t="n"/>
-      <c r="E89" s="127" t="n"/>
+      <c r="B89" s="97" t="n"/>
+      <c r="C89" s="97" t="n"/>
+      <c r="D89" s="97" t="n"/>
     </row>
     <row r="90" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A90" s="42" t="inlineStr">
@@ -3287,18 +3137,17 @@
           <t>Change in Accounts Receivable</t>
         </is>
       </c>
-      <c r="B90" s="132" t="n">
+      <c r="B90" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="C90" s="145">
+      <c r="C90" s="97">
         <f>B53-C53</f>
         <v/>
       </c>
-      <c r="D90" s="145">
+      <c r="D90" s="97">
         <f>C53-D53</f>
         <v/>
       </c>
-      <c r="E90" s="127" t="n"/>
     </row>
     <row r="91" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A91" s="42" t="inlineStr">
@@ -3306,18 +3155,17 @@
           <t>Change in Inventory</t>
         </is>
       </c>
-      <c r="B91" s="132" t="n">
+      <c r="B91" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="C91" s="145">
+      <c r="C91" s="97">
         <f>B54-C54</f>
         <v/>
       </c>
-      <c r="D91" s="145">
+      <c r="D91" s="97">
         <f>C54-D54</f>
         <v/>
       </c>
-      <c r="E91" s="127" t="n"/>
     </row>
     <row r="92" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A92" t="inlineStr">
@@ -3325,18 +3173,17 @@
           <t>Change in Prepaid Expenses</t>
         </is>
       </c>
-      <c r="B92" s="131" t="n">
+      <c r="B92" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="C92" s="133">
+      <c r="C92" s="96">
         <f>B55-C55</f>
         <v/>
       </c>
-      <c r="D92" s="133">
+      <c r="D92" s="96">
         <f>C55-D55</f>
         <v/>
       </c>
-      <c r="E92" s="127" t="n"/>
     </row>
     <row r="93" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A93" t="inlineStr">
@@ -3344,18 +3191,17 @@
           <t>Change in Other Current Assets</t>
         </is>
       </c>
-      <c r="B93" s="131" t="n">
+      <c r="B93" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="C93" s="133">
+      <c r="C93" s="96">
         <f>B56-C56</f>
         <v/>
       </c>
-      <c r="D93" s="133">
+      <c r="D93" s="96">
         <f>C56-D56</f>
         <v/>
       </c>
-      <c r="E93" s="127" t="n"/>
     </row>
     <row r="94" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A94" s="42" t="inlineStr">
@@ -3363,18 +3209,17 @@
           <t>Change in Accounts Payable</t>
         </is>
       </c>
-      <c r="B94" s="132" t="n">
+      <c r="B94" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="C94" s="145">
+      <c r="C94" s="97">
         <f>C66-B66</f>
         <v/>
       </c>
-      <c r="D94" s="145">
+      <c r="D94" s="97">
         <f>D66-C66</f>
         <v/>
       </c>
-      <c r="E94" s="127" t="n"/>
     </row>
     <row r="95" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A95" t="inlineStr">
@@ -3382,18 +3227,17 @@
           <t>Change in Accrued Payroll</t>
         </is>
       </c>
-      <c r="B95" s="131" t="n">
+      <c r="B95" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="C95" s="133">
+      <c r="C95" s="96">
         <f>C67-B67</f>
         <v/>
       </c>
-      <c r="D95" s="133">
+      <c r="D95" s="96">
         <f>D67-C67</f>
         <v/>
       </c>
-      <c r="E95" s="127" t="n"/>
     </row>
     <row r="96" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A96" t="inlineStr">
@@ -3401,18 +3245,17 @@
           <t>Change in Deferred Revenue</t>
         </is>
       </c>
-      <c r="B96" s="131" t="n">
+      <c r="B96" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="C96" s="133">
+      <c r="C96" s="96">
         <f>C68-B68</f>
         <v/>
       </c>
-      <c r="D96" s="133">
+      <c r="D96" s="96">
         <f>D68-C68</f>
         <v/>
       </c>
-      <c r="E96" s="127" t="n"/>
     </row>
     <row r="97" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A97" t="inlineStr">
@@ -3420,18 +3263,17 @@
           <t>Change in Interest Payable</t>
         </is>
       </c>
-      <c r="B97" s="131" t="n">
+      <c r="B97" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="C97" s="133">
+      <c r="C97" s="96">
         <f>C69-B69</f>
         <v/>
       </c>
-      <c r="D97" s="133">
+      <c r="D97" s="96">
         <f>D69-C69</f>
         <v/>
       </c>
-      <c r="E97" s="127" t="n"/>
     </row>
     <row r="98" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A98" t="inlineStr">
@@ -3439,18 +3281,17 @@
           <t>Change in Other Current Liabilities</t>
         </is>
       </c>
-      <c r="B98" s="131" t="n">
+      <c r="B98" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="C98" s="133">
+      <c r="C98" s="96">
         <f>C70-B70</f>
         <v/>
       </c>
-      <c r="D98" s="133">
+      <c r="D98" s="96">
         <f>D70-C70</f>
         <v/>
       </c>
-      <c r="E98" s="127" t="n"/>
     </row>
     <row r="99" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A99" s="42" t="inlineStr">
@@ -3458,18 +3299,17 @@
           <t>Change in Income Taxes Payable</t>
         </is>
       </c>
-      <c r="B99" s="132" t="n">
+      <c r="B99" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="C99" s="145">
+      <c r="C99" s="97">
         <f>C71-B71</f>
         <v/>
       </c>
-      <c r="D99" s="145">
+      <c r="D99" s="97">
         <f>D71-C71</f>
         <v/>
       </c>
-      <c r="E99" s="127" t="n"/>
     </row>
     <row r="100" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A100" s="30" t="inlineStr">
@@ -3477,26 +3317,24 @@
           <t>Net Cash Provided by Operating Activities</t>
         </is>
       </c>
-      <c r="B100" s="153">
+      <c r="B100" s="116">
         <f>SUM(B87:B99)</f>
         <v/>
       </c>
-      <c r="C100" s="153">
+      <c r="C100" s="116">
         <f>SUM(C87:C99)</f>
         <v/>
       </c>
-      <c r="D100" s="153">
+      <c r="D100" s="116">
         <f>SUM(D87:D99)</f>
         <v/>
       </c>
-      <c r="E100" s="127" t="n"/>
     </row>
     <row r="101" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A101" s="14" t="inlineStr"/>
-      <c r="B101" s="132" t="n"/>
-      <c r="C101" s="132" t="n"/>
-      <c r="D101" s="132" t="n"/>
-      <c r="E101" s="127" t="n"/>
+      <c r="B101" s="97" t="n"/>
+      <c r="C101" s="97" t="n"/>
+      <c r="D101" s="97" t="n"/>
     </row>
     <row r="102" ht="14.5" customHeight="1">
       <c r="A102" s="13" t="inlineStr">
@@ -3504,10 +3342,9 @@
           <t>Investing Activities:</t>
         </is>
       </c>
-      <c r="B102" s="132" t="n"/>
-      <c r="C102" s="132" t="n"/>
-      <c r="D102" s="132" t="n"/>
-      <c r="E102" s="127" t="n"/>
+      <c r="B102" s="97" t="n"/>
+      <c r="C102" s="97" t="n"/>
+      <c r="D102" s="97" t="n"/>
     </row>
     <row r="103" ht="19.75" customFormat="1" customHeight="1" s="12">
       <c r="A103" s="14" t="inlineStr">
@@ -3515,16 +3352,15 @@
           <t>Acquisitions of Property and Equipment</t>
         </is>
       </c>
-      <c r="B103" s="132" t="n">
+      <c r="B103" s="105" t="n">
         <v>-20</v>
       </c>
-      <c r="C103" s="132" t="n">
+      <c r="C103" s="105" t="n">
         <v>-29.99999999999999</v>
       </c>
-      <c r="D103" s="132" t="n">
+      <c r="D103" s="105" t="n">
         <v>-24.99999999999997</v>
       </c>
-      <c r="E103" s="127" t="n"/>
     </row>
     <row r="104" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A104" s="30" t="inlineStr">
@@ -3532,26 +3368,24 @@
           <t>Cash Flows from Investing Activities</t>
         </is>
       </c>
-      <c r="B104" s="153">
+      <c r="B104" s="116">
         <f>SUM(B103:B103)</f>
         <v/>
       </c>
-      <c r="C104" s="153">
+      <c r="C104" s="116">
         <f>SUM(C103:C103)</f>
         <v/>
       </c>
-      <c r="D104" s="153">
+      <c r="D104" s="116">
         <f>SUM(D103:D103)</f>
         <v/>
       </c>
-      <c r="E104" s="127" t="n"/>
     </row>
     <row r="105" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A105" s="14" t="inlineStr"/>
-      <c r="B105" s="132" t="n"/>
-      <c r="C105" s="132" t="n"/>
-      <c r="D105" s="132" t="n"/>
-      <c r="E105" s="127" t="n"/>
+      <c r="B105" s="97" t="n"/>
+      <c r="C105" s="97" t="n"/>
+      <c r="D105" s="97" t="n"/>
     </row>
     <row r="106" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A106" s="13" t="inlineStr">
@@ -3559,10 +3393,9 @@
           <t>Financing Activities:</t>
         </is>
       </c>
-      <c r="B106" s="132" t="n"/>
-      <c r="C106" s="132" t="n"/>
-      <c r="D106" s="132" t="n"/>
-      <c r="E106" s="127" t="n"/>
+      <c r="B106" s="97" t="n"/>
+      <c r="C106" s="97" t="n"/>
+      <c r="D106" s="97" t="n"/>
     </row>
     <row r="107" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A107" s="14" t="inlineStr">
@@ -3570,18 +3403,17 @@
           <t>Issuance of Common Stock</t>
         </is>
       </c>
-      <c r="B107" s="132" t="n">
+      <c r="B107" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="C107" s="145">
+      <c r="C107" s="97">
         <f>C76-B76</f>
         <v/>
       </c>
-      <c r="D107" s="145">
+      <c r="D107" s="97">
         <f>D76-C76</f>
         <v/>
       </c>
-      <c r="E107" s="127" t="n"/>
     </row>
     <row r="108" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A108" s="14" t="inlineStr">
@@ -3589,19 +3421,18 @@
           <t>Dividends (current year)</t>
         </is>
       </c>
-      <c r="B108" s="145">
+      <c r="B108" s="97">
         <f>-B45</f>
         <v/>
       </c>
-      <c r="C108" s="145">
+      <c r="C108" s="97">
         <f>-C45</f>
         <v/>
       </c>
-      <c r="D108" s="145">
+      <c r="D108" s="97">
         <f>-D45</f>
         <v/>
       </c>
-      <c r="E108" s="127" t="n"/>
     </row>
     <row r="109" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A109" s="14" t="inlineStr">
@@ -3609,18 +3440,17 @@
           <t>Increase/(Decrease) in Long-Term Debt</t>
         </is>
       </c>
-      <c r="B109" s="132" t="n">
+      <c r="B109" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="C109" s="145">
+      <c r="C109" s="97">
         <f>C74-B74</f>
         <v/>
       </c>
-      <c r="D109" s="145">
+      <c r="D109" s="97">
         <f>D74-C74</f>
         <v/>
       </c>
-      <c r="E109" s="127" t="n"/>
     </row>
     <row r="110" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A110" s="30" t="inlineStr">
@@ -3628,26 +3458,24 @@
           <t>Cash Flows from Financing Activities</t>
         </is>
       </c>
-      <c r="B110" s="153">
+      <c r="B110" s="116">
         <f>SUM(B107:B109)</f>
         <v/>
       </c>
-      <c r="C110" s="153">
+      <c r="C110" s="116">
         <f>SUM(C107:C109)</f>
         <v/>
       </c>
-      <c r="D110" s="153">
+      <c r="D110" s="116">
         <f>SUM(D107:D109)</f>
         <v/>
       </c>
-      <c r="E110" s="127" t="n"/>
     </row>
     <row r="111" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A111" s="14" t="inlineStr"/>
-      <c r="B111" s="132" t="n"/>
-      <c r="C111" s="132" t="n"/>
-      <c r="D111" s="132" t="n"/>
-      <c r="E111" s="127" t="n"/>
+      <c r="B111" s="97" t="n"/>
+      <c r="C111" s="97" t="n"/>
+      <c r="D111" s="97" t="n"/>
     </row>
     <row r="112" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A112" s="13" t="inlineStr">
@@ -3655,19 +3483,18 @@
           <t>Increase/(Decrease) in Cash and Equivalents</t>
         </is>
       </c>
-      <c r="B112" s="145">
+      <c r="B112" s="97">
         <f>B100+B104+B110</f>
         <v/>
       </c>
-      <c r="C112" s="145">
+      <c r="C112" s="97">
         <f>C100+C104+C110</f>
         <v/>
       </c>
-      <c r="D112" s="145">
+      <c r="D112" s="97">
         <f>D100+D104+D110</f>
         <v/>
       </c>
-      <c r="E112" s="127" t="n"/>
     </row>
     <row r="113" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A113" s="14" t="inlineStr">
@@ -3675,18 +3502,17 @@
           <t>Cash and Equivalents, Beginning of the Year</t>
         </is>
       </c>
-      <c r="B113" s="132" t="n">
+      <c r="B113" s="105" t="n">
         <v>60</v>
       </c>
-      <c r="C113" s="145">
+      <c r="C113" s="97">
         <f>B114</f>
         <v/>
       </c>
-      <c r="D113" s="145">
+      <c r="D113" s="97">
         <f>C114</f>
         <v/>
       </c>
-      <c r="E113" s="127" t="n"/>
     </row>
     <row r="114" outlineLevel="1" ht="14.5" customHeight="1">
       <c r="A114" s="44" t="inlineStr">
@@ -3694,43 +3520,38 @@
           <t>Cash and Equivalents, End of the Year</t>
         </is>
       </c>
-      <c r="B114" s="154">
+      <c r="B114" s="117">
         <f>B113+B112</f>
         <v/>
       </c>
-      <c r="C114" s="154">
+      <c r="C114" s="117">
         <f>C113+C112</f>
         <v/>
       </c>
-      <c r="D114" s="154">
+      <c r="D114" s="117">
         <f>D113+D112</f>
         <v/>
       </c>
-      <c r="E114" s="127" t="n"/>
     </row>
     <row r="115" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B115" s="131" t="n"/>
-      <c r="C115" s="131" t="n"/>
-      <c r="D115" s="131" t="n"/>
-      <c r="E115" s="127" t="n"/>
+      <c r="B115" s="96" t="n"/>
+      <c r="C115" s="96" t="n"/>
+      <c r="D115" s="96" t="n"/>
     </row>
     <row r="116" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B116" s="155" t="n"/>
-      <c r="C116" s="155" t="n"/>
-      <c r="D116" s="155" t="n"/>
-      <c r="E116" s="127" t="n"/>
+      <c r="B116" s="118" t="n"/>
+      <c r="C116" s="118" t="n"/>
+      <c r="D116" s="118" t="n"/>
     </row>
     <row r="117" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B117" s="132" t="n"/>
-      <c r="C117" s="132" t="n"/>
-      <c r="D117" s="132" t="n"/>
-      <c r="E117" s="127" t="n"/>
+      <c r="B117" s="97" t="n"/>
+      <c r="C117" s="97" t="n"/>
+      <c r="D117" s="97" t="n"/>
     </row>
     <row r="118" outlineLevel="1" ht="14.5" customHeight="1">
-      <c r="B118" s="132" t="n"/>
-      <c r="C118" s="132" t="n"/>
-      <c r="D118" s="132" t="n"/>
-      <c r="E118" s="127" t="n"/>
+      <c r="B118" s="97" t="n"/>
+      <c r="C118" s="97" t="n"/>
+      <c r="D118" s="97" t="n"/>
     </row>
     <row r="119" outlineLevel="1" ht="14.5" customHeight="1"/>
     <row r="120" outlineLevel="1" ht="14.5" customHeight="1"/>
